--- a/ofc/पशु शाखा इस्तिमेट/subash.xlsx
+++ b/ofc/पशु शाखा इस्तिमेट/subash.xlsx
@@ -2,14 +2,14 @@
 <file path=xl/workbook.xml><?xml version="1.0" encoding="utf-8"?>
 <workbook xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x15="http://schemas.microsoft.com/office/spreadsheetml/2010/11/main" mc:Ignorable="x15">
   <fileVersion appName="xl" lastEdited="6" lowestEdited="6" rupBuild="14420"/>
-  <workbookPr/>
+  <workbookPr defaultThemeVersion="164011"/>
   <mc:AlternateContent xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
     <mc:Choice Requires="x15">
-      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="D:\New folder\081-082\ofc\ofc\पशु शाखा इस्तिमेट\"/>
+      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="H:\081_082\ofc\ofc\पशु शाखा इस्तिमेट\"/>
     </mc:Choice>
   </mc:AlternateContent>
   <bookViews>
-    <workbookView xWindow="-120" yWindow="-120" windowWidth="20730" windowHeight="11160"/>
+    <workbookView xWindow="-120" yWindow="-120" windowWidth="20736" windowHeight="11160"/>
   </bookViews>
   <sheets>
     <sheet name="as per mistry" sheetId="19" r:id="rId1"/>
@@ -49,7 +49,7 @@
     <definedName name="skilled_blacksmith">[2]District_Rate!$D$149</definedName>
     <definedName name="unskilled">[2]District_Rate!$D$156</definedName>
   </definedNames>
-  <calcPr calcId="152511"/>
+  <calcPr calcId="162913"/>
   <extLst>
     <ext xmlns:x15="http://schemas.microsoft.com/office/spreadsheetml/2010/11/main" uri="{140A7094-0E35-4892-8432-C4D2E57EDEB5}">
       <x15:workbookPr chartTrackingRefBase="1"/>
@@ -179,9 +179,6 @@
   </si>
   <si>
     <t>no.</t>
-  </si>
-  <si>
-    <t>dfn;fdfg pknAw u/L )=%) dL=dL= afSnf] ;L=hL=cfO{= zL6 -h:tf kftfsf]_ 5fgf 5fpg] sfd k'/f .</t>
   </si>
   <si>
     <t>F1</t>
@@ -335,14 +332,17 @@
   <si>
     <t>-MS square pipe of 1.5"*1.5" of 1.2mm thickness</t>
   </si>
+  <si>
+    <t>dfn;fdfg pknAw u/L )=@$ dL=dL= afSnf] ;L=hL=cfO{= zL6 -h:tf kftfsf]_ 5fgf 5fpg] sfd k'/f .</t>
+  </si>
 </sst>
 </file>
 
 <file path=xl/styles.xml><?xml version="1.0" encoding="utf-8"?>
-<styleSheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
+<styleSheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:x16r2="http://schemas.microsoft.com/office/spreadsheetml/2015/02/main" mc:Ignorable="x14ac x16r2">
   <numFmts count="2">
-    <numFmt numFmtId="43" formatCode="_(* #,##0.00_);_(* \(#,##0.00\);_(* &quot;-&quot;??_);_(@_)"/>
-    <numFmt numFmtId="164" formatCode="0.0"/>
+    <numFmt numFmtId="164" formatCode="_(* #,##0.00_);_(* \(#,##0.00\);_(* &quot;-&quot;??_);_(@_)"/>
+    <numFmt numFmtId="165" formatCode="0.0"/>
   </numFmts>
   <fonts count="26">
     <font>
@@ -623,9 +623,9 @@
   </borders>
   <cellStyleXfs count="8">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0"/>
-    <xf numFmtId="43" fontId="1" fillId="0" borderId="0" applyFont="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
+    <xf numFmtId="164" fontId="1" fillId="0" borderId="0" applyFont="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
     <xf numFmtId="0" fontId="11" fillId="0" borderId="0"/>
-    <xf numFmtId="43" fontId="11" fillId="0" borderId="0" applyFont="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
+    <xf numFmtId="164" fontId="11" fillId="0" borderId="0" applyFont="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
     <xf numFmtId="0" fontId="11" fillId="0" borderId="0"/>
     <xf numFmtId="0" fontId="11" fillId="0" borderId="0"/>
     <xf numFmtId="0" fontId="11" fillId="0" borderId="0"/>
@@ -636,7 +636,7 @@
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyAlignment="1">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="43" fontId="7" fillId="0" borderId="0" xfId="1" applyFont="1"/>
+    <xf numFmtId="164" fontId="7" fillId="0" borderId="0" xfId="1" applyFont="1"/>
     <xf numFmtId="0" fontId="7" fillId="0" borderId="1" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center"/>
     </xf>
@@ -644,7 +644,7 @@
     <xf numFmtId="0" fontId="2" fillId="0" borderId="0" xfId="0" applyFont="1"/>
     <xf numFmtId="2" fontId="0" fillId="0" borderId="1" xfId="0" applyNumberFormat="1" applyBorder="1"/>
     <xf numFmtId="2" fontId="2" fillId="0" borderId="1" xfId="0" applyNumberFormat="1" applyFont="1" applyBorder="1"/>
-    <xf numFmtId="164" fontId="0" fillId="0" borderId="1" xfId="0" applyNumberFormat="1" applyBorder="1"/>
+    <xf numFmtId="165" fontId="0" fillId="0" borderId="1" xfId="0" applyNumberFormat="1" applyBorder="1"/>
     <xf numFmtId="0" fontId="2" fillId="0" borderId="1" xfId="0" applyFont="1" applyBorder="1"/>
     <xf numFmtId="2" fontId="0" fillId="0" borderId="1" xfId="0" applyNumberFormat="1" applyBorder="1" applyAlignment="1">
       <alignment vertical="center"/>
@@ -661,7 +661,7 @@
     <xf numFmtId="0" fontId="2" fillId="0" borderId="0" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="right" vertical="center"/>
     </xf>
-    <xf numFmtId="43" fontId="2" fillId="0" borderId="0" xfId="1" applyFont="1" applyBorder="1" applyAlignment="1">
+    <xf numFmtId="164" fontId="2" fillId="0" borderId="0" xfId="1" applyFont="1" applyBorder="1" applyAlignment="1">
       <alignment vertical="center"/>
     </xf>
     <xf numFmtId="0" fontId="2" fillId="0" borderId="0" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
@@ -670,7 +670,7 @@
     <xf numFmtId="0" fontId="7" fillId="0" borderId="1" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="top" wrapText="1"/>
     </xf>
-    <xf numFmtId="43" fontId="7" fillId="0" borderId="1" xfId="1" applyFont="1" applyBorder="1" applyAlignment="1">
+    <xf numFmtId="164" fontId="7" fillId="0" borderId="1" xfId="1" applyFont="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center"/>
     </xf>
     <xf numFmtId="0" fontId="7" fillId="0" borderId="1" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
@@ -682,7 +682,7 @@
     <xf numFmtId="1" fontId="8" fillId="0" borderId="1" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="164" fontId="9" fillId="0" borderId="1" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+    <xf numFmtId="165" fontId="9" fillId="0" borderId="1" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment vertical="center"/>
     </xf>
     <xf numFmtId="2" fontId="9" fillId="0" borderId="1" xfId="1" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
@@ -726,7 +726,7 @@
     <xf numFmtId="0" fontId="10" fillId="0" borderId="1" xfId="0" quotePrefix="1" applyFont="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="right" vertical="center" wrapText="1"/>
     </xf>
-    <xf numFmtId="164" fontId="0" fillId="0" borderId="1" xfId="0" applyNumberFormat="1" applyBorder="1" applyAlignment="1">
+    <xf numFmtId="165" fontId="0" fillId="0" borderId="1" xfId="0" applyNumberFormat="1" applyBorder="1" applyAlignment="1">
       <alignment vertical="center"/>
     </xf>
     <xf numFmtId="0" fontId="3" fillId="0" borderId="1" xfId="0" quotePrefix="1" applyFont="1" applyBorder="1" applyAlignment="1">
@@ -821,6 +821,22 @@
     <xf numFmtId="0" fontId="13" fillId="2" borderId="1" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment wrapText="1"/>
     </xf>
+    <xf numFmtId="0" fontId="12" fillId="0" borderId="0" xfId="0" applyFont="1" applyAlignment="1"/>
+    <xf numFmtId="0" fontId="6" fillId="0" borderId="0" xfId="0" applyFont="1" applyAlignment="1">
+      <alignment horizontal="right"/>
+    </xf>
+    <xf numFmtId="0" fontId="3" fillId="0" borderId="0" xfId="0" applyFont="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="4" fillId="0" borderId="0" xfId="0" applyFont="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="2" fillId="0" borderId="0" xfId="0" applyFont="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="5" fillId="0" borderId="0" xfId="0" applyFont="1" applyAlignment="1">
+      <alignment horizontal="center"/>
+    </xf>
     <xf numFmtId="2" fontId="0" fillId="0" borderId="2" xfId="0" applyNumberFormat="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center"/>
     </xf>
@@ -828,9 +844,6 @@
       <alignment horizontal="center" vertical="center"/>
     </xf>
     <xf numFmtId="0" fontId="6" fillId="0" borderId="0" xfId="0" applyFont="1"/>
-    <xf numFmtId="0" fontId="6" fillId="0" borderId="0" xfId="0" applyFont="1" applyAlignment="1">
-      <alignment horizontal="right"/>
-    </xf>
     <xf numFmtId="2" fontId="0" fillId="0" borderId="2" xfId="1" applyNumberFormat="1" applyFont="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center"/>
     </xf>
@@ -839,19 +852,6 @@
     </xf>
     <xf numFmtId="2" fontId="0" fillId="0" borderId="1" xfId="0" applyNumberFormat="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="12" fillId="0" borderId="0" xfId="0" applyFont="1" applyAlignment="1"/>
-    <xf numFmtId="0" fontId="3" fillId="0" borderId="0" xfId="0" applyFont="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="4" fillId="0" borderId="0" xfId="0" applyFont="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="2" fillId="0" borderId="0" xfId="0" applyFont="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="5" fillId="0" borderId="0" xfId="0" applyFont="1" applyAlignment="1">
-      <alignment horizontal="center"/>
     </xf>
     <xf numFmtId="0" fontId="16" fillId="0" borderId="4" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center"/>
@@ -1668,137 +1668,137 @@
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
   <dimension ref="A1:AE44"/>
   <sheetViews>
-    <sheetView tabSelected="1" view="pageBreakPreview" zoomScale="80" zoomScaleNormal="100" zoomScaleSheetLayoutView="80" workbookViewId="0">
-      <selection activeCell="A36" sqref="A36"/>
+    <sheetView tabSelected="1" topLeftCell="A22" zoomScaleNormal="100" zoomScaleSheetLayoutView="80" workbookViewId="0">
+      <selection activeCell="B41" sqref="B41"/>
     </sheetView>
   </sheetViews>
-  <sheetFormatPr defaultRowHeight="15"/>
+  <sheetFormatPr defaultRowHeight="14.4"/>
   <cols>
-    <col min="1" max="1" width="5.140625" style="5" bestFit="1" customWidth="1"/>
-    <col min="2" max="2" width="30.140625" customWidth="1"/>
-    <col min="3" max="3" width="5.5703125" bestFit="1" customWidth="1"/>
-    <col min="4" max="4" width="6.7109375" customWidth="1"/>
-    <col min="5" max="5" width="7.85546875" customWidth="1"/>
-    <col min="6" max="6" width="7.140625" customWidth="1"/>
-    <col min="7" max="7" width="9.28515625" style="5" customWidth="1"/>
-    <col min="8" max="8" width="6.28515625" style="5" bestFit="1" customWidth="1"/>
-    <col min="9" max="9" width="9.28515625" style="5" bestFit="1" customWidth="1"/>
-    <col min="10" max="10" width="10.5703125" style="5" bestFit="1" customWidth="1"/>
-    <col min="11" max="11" width="9.85546875" bestFit="1" customWidth="1"/>
-    <col min="14" max="14" width="10.5703125" bestFit="1" customWidth="1"/>
-    <col min="15" max="15" width="16.42578125" bestFit="1" customWidth="1"/>
-    <col min="16" max="16" width="12.140625" customWidth="1"/>
-    <col min="17" max="17" width="14.42578125" customWidth="1"/>
+    <col min="1" max="1" width="5.109375" style="5" bestFit="1" customWidth="1"/>
+    <col min="2" max="2" width="30.109375" customWidth="1"/>
+    <col min="3" max="3" width="5.5546875" bestFit="1" customWidth="1"/>
+    <col min="4" max="4" width="6.6640625" customWidth="1"/>
+    <col min="5" max="5" width="7.88671875" customWidth="1"/>
+    <col min="6" max="6" width="7.109375" customWidth="1"/>
+    <col min="7" max="7" width="9.33203125" style="5" customWidth="1"/>
+    <col min="8" max="8" width="6.33203125" style="5" bestFit="1" customWidth="1"/>
+    <col min="9" max="9" width="9.33203125" style="5" bestFit="1" customWidth="1"/>
+    <col min="10" max="10" width="10.5546875" style="5" bestFit="1" customWidth="1"/>
+    <col min="11" max="11" width="9.88671875" bestFit="1" customWidth="1"/>
+    <col min="14" max="14" width="10.5546875" bestFit="1" customWidth="1"/>
+    <col min="15" max="15" width="16.44140625" bestFit="1" customWidth="1"/>
+    <col min="16" max="16" width="12.109375" customWidth="1"/>
+    <col min="17" max="17" width="14.44140625" customWidth="1"/>
   </cols>
   <sheetData>
     <row r="1" spans="1:13" s="1" customFormat="1">
-      <c r="A1" s="83" t="s">
+      <c r="A1" s="77" t="s">
         <v>0</v>
       </c>
-      <c r="B1" s="83"/>
-      <c r="C1" s="83"/>
-      <c r="D1" s="83"/>
-      <c r="E1" s="83"/>
-      <c r="F1" s="83"/>
-      <c r="G1" s="83"/>
-      <c r="H1" s="83"/>
-      <c r="I1" s="83"/>
-      <c r="J1" s="83"/>
-      <c r="K1" s="83"/>
-    </row>
-    <row r="2" spans="1:13" s="1" customFormat="1" ht="22.5">
-      <c r="A2" s="84" t="s">
+      <c r="B1" s="77"/>
+      <c r="C1" s="77"/>
+      <c r="D1" s="77"/>
+      <c r="E1" s="77"/>
+      <c r="F1" s="77"/>
+      <c r="G1" s="77"/>
+      <c r="H1" s="77"/>
+      <c r="I1" s="77"/>
+      <c r="J1" s="77"/>
+      <c r="K1" s="77"/>
+    </row>
+    <row r="2" spans="1:13" s="1" customFormat="1" ht="22.8">
+      <c r="A2" s="78" t="s">
         <v>1</v>
       </c>
-      <c r="B2" s="84"/>
-      <c r="C2" s="84"/>
-      <c r="D2" s="84"/>
-      <c r="E2" s="84"/>
-      <c r="F2" s="84"/>
-      <c r="G2" s="84"/>
-      <c r="H2" s="84"/>
-      <c r="I2" s="84"/>
-      <c r="J2" s="84"/>
-      <c r="K2" s="84"/>
+      <c r="B2" s="78"/>
+      <c r="C2" s="78"/>
+      <c r="D2" s="78"/>
+      <c r="E2" s="78"/>
+      <c r="F2" s="78"/>
+      <c r="G2" s="78"/>
+      <c r="H2" s="78"/>
+      <c r="I2" s="78"/>
+      <c r="J2" s="78"/>
+      <c r="K2" s="78"/>
     </row>
     <row r="3" spans="1:13" s="1" customFormat="1">
-      <c r="A3" s="85" t="s">
+      <c r="A3" s="79" t="s">
         <v>2</v>
       </c>
-      <c r="B3" s="85"/>
-      <c r="C3" s="85"/>
-      <c r="D3" s="85"/>
-      <c r="E3" s="85"/>
-      <c r="F3" s="85"/>
-      <c r="G3" s="85"/>
-      <c r="H3" s="85"/>
-      <c r="I3" s="85"/>
-      <c r="J3" s="85"/>
-      <c r="K3" s="85"/>
+      <c r="B3" s="79"/>
+      <c r="C3" s="79"/>
+      <c r="D3" s="79"/>
+      <c r="E3" s="79"/>
+      <c r="F3" s="79"/>
+      <c r="G3" s="79"/>
+      <c r="H3" s="79"/>
+      <c r="I3" s="79"/>
+      <c r="J3" s="79"/>
+      <c r="K3" s="79"/>
     </row>
     <row r="4" spans="1:13" s="1" customFormat="1">
-      <c r="A4" s="85" t="s">
+      <c r="A4" s="79" t="s">
         <v>3</v>
       </c>
-      <c r="B4" s="85"/>
-      <c r="C4" s="85"/>
-      <c r="D4" s="85"/>
-      <c r="E4" s="85"/>
-      <c r="F4" s="85"/>
-      <c r="G4" s="85"/>
-      <c r="H4" s="85"/>
-      <c r="I4" s="85"/>
-      <c r="J4" s="85"/>
-      <c r="K4" s="85"/>
-    </row>
-    <row r="5" spans="1:13" ht="18.75">
-      <c r="A5" s="86" t="s">
+      <c r="B4" s="79"/>
+      <c r="C4" s="79"/>
+      <c r="D4" s="79"/>
+      <c r="E4" s="79"/>
+      <c r="F4" s="79"/>
+      <c r="G4" s="79"/>
+      <c r="H4" s="79"/>
+      <c r="I4" s="79"/>
+      <c r="J4" s="79"/>
+      <c r="K4" s="79"/>
+    </row>
+    <row r="5" spans="1:13" ht="17.399999999999999">
+      <c r="A5" s="80" t="s">
         <v>4</v>
       </c>
-      <c r="B5" s="86"/>
-      <c r="C5" s="86"/>
-      <c r="D5" s="86"/>
-      <c r="E5" s="86"/>
-      <c r="F5" s="86"/>
-      <c r="G5" s="86"/>
-      <c r="H5" s="86"/>
-      <c r="I5" s="86"/>
-      <c r="J5" s="86"/>
-      <c r="K5" s="86"/>
-    </row>
-    <row r="6" spans="1:13" ht="18.75">
-      <c r="A6" s="82" t="s">
+      <c r="B5" s="80"/>
+      <c r="C5" s="80"/>
+      <c r="D5" s="80"/>
+      <c r="E5" s="80"/>
+      <c r="F5" s="80"/>
+      <c r="G5" s="80"/>
+      <c r="H5" s="80"/>
+      <c r="I5" s="80"/>
+      <c r="J5" s="80"/>
+      <c r="K5" s="80"/>
+    </row>
+    <row r="6" spans="1:13" ht="18">
+      <c r="A6" s="75" t="s">
+        <v>69</v>
+      </c>
+      <c r="B6" s="75"/>
+      <c r="C6" s="75"/>
+      <c r="D6" s="75"/>
+      <c r="E6" s="75"/>
+      <c r="F6" s="75"/>
+      <c r="G6" s="75"/>
+      <c r="H6" s="76" t="s">
+        <v>24</v>
+      </c>
+      <c r="I6" s="76"/>
+      <c r="J6" s="76"/>
+      <c r="K6" s="76"/>
+    </row>
+    <row r="7" spans="1:13" ht="15.6">
+      <c r="A7" s="83" t="s">
+        <v>23</v>
+      </c>
+      <c r="B7" s="83"/>
+      <c r="C7" s="83"/>
+      <c r="D7" s="83"/>
+      <c r="E7" s="83"/>
+      <c r="F7" s="83"/>
+      <c r="G7" s="2"/>
+      <c r="H7" s="76" t="s">
         <v>70</v>
       </c>
-      <c r="B6" s="82"/>
-      <c r="C6" s="82"/>
-      <c r="D6" s="82"/>
-      <c r="E6" s="82"/>
-      <c r="F6" s="82"/>
-      <c r="G6" s="82"/>
-      <c r="H6" s="78" t="s">
-        <v>24</v>
-      </c>
-      <c r="I6" s="78"/>
-      <c r="J6" s="78"/>
-      <c r="K6" s="78"/>
-    </row>
-    <row r="7" spans="1:13" ht="15.75">
-      <c r="A7" s="77" t="s">
-        <v>23</v>
-      </c>
-      <c r="B7" s="77"/>
-      <c r="C7" s="77"/>
-      <c r="D7" s="77"/>
-      <c r="E7" s="77"/>
-      <c r="F7" s="77"/>
-      <c r="G7" s="2"/>
-      <c r="H7" s="78" t="s">
-        <v>71</v>
-      </c>
-      <c r="I7" s="78"/>
-      <c r="J7" s="78"/>
-      <c r="K7" s="78"/>
+      <c r="I7" s="76"/>
+      <c r="J7" s="76"/>
+      <c r="K7" s="76"/>
     </row>
     <row r="8" spans="1:13" ht="15" customHeight="1">
       <c r="A8" s="3" t="s">
@@ -1835,7 +1835,7 @@
         <v>15</v>
       </c>
     </row>
-    <row r="9" spans="1:13" s="1" customFormat="1" ht="45">
+    <row r="9" spans="1:13" s="1" customFormat="1" ht="41.4">
       <c r="A9" s="21">
         <v>1</v>
       </c>
@@ -1860,10 +1860,10 @@
       <c r="J9" s="27"/>
       <c r="K9" s="24"/>
     </row>
-    <row r="10" spans="1:13" s="1" customFormat="1" ht="30">
+    <row r="10" spans="1:13" s="1" customFormat="1" ht="27.6">
       <c r="A10" s="38"/>
       <c r="B10" s="39" t="s">
-        <v>72</v>
+        <v>71</v>
       </c>
       <c r="C10" s="40">
         <v>5</v>
@@ -1986,7 +1986,7 @@
       </c>
       <c r="K14" s="24"/>
     </row>
-    <row r="15" spans="1:13" s="1" customFormat="1">
+    <row r="15" spans="1:13" s="1" customFormat="1" ht="15">
       <c r="A15" s="21"/>
       <c r="B15" s="37"/>
       <c r="C15" s="22"/>
@@ -2004,7 +2004,7 @@
         <v>2</v>
       </c>
       <c r="B16" s="74" t="s">
-        <v>68</v>
+        <v>67</v>
       </c>
       <c r="C16" s="40"/>
       <c r="D16" s="10"/>
@@ -2059,12 +2059,12 @@
         <v>31</v>
       </c>
       <c r="I18" s="26">
-        <f>7796.04/10</f>
-        <v>779.60400000000004</v>
+        <f>Sheet1!H10/10</f>
+        <v>249.75</v>
       </c>
       <c r="J18" s="27">
         <f>G18*I18</f>
-        <v>70257.02856446206</v>
+        <v>22507.186833282536</v>
       </c>
       <c r="K18" s="24"/>
     </row>
@@ -2119,10 +2119,10 @@
     <row r="22" spans="1:13" s="1" customFormat="1">
       <c r="A22" s="21"/>
       <c r="B22" s="39" t="s">
-        <v>69</v>
+        <v>68</v>
       </c>
       <c r="C22" s="22">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="D22" s="23">
         <f>5.63+6.09+0.3+0.3</f>
@@ -2136,7 +2136,7 @@
       </c>
       <c r="G22" s="36">
         <f>PRODUCT(C22:F22)</f>
-        <v>0</v>
+        <v>0.92400000000000004</v>
       </c>
       <c r="H22" s="25"/>
       <c r="I22" s="26"/>
@@ -2154,7 +2154,7 @@
       <c r="F23" s="24"/>
       <c r="G23" s="27">
         <f>SUM(G22:G22)</f>
-        <v>0</v>
+        <v>0.92400000000000004</v>
       </c>
       <c r="H23" s="25" t="s">
         <v>36</v>
@@ -2164,7 +2164,7 @@
       </c>
       <c r="J23" s="27">
         <f>G23*I23</f>
-        <v>0</v>
+        <v>612.89843999999994</v>
       </c>
       <c r="K23" s="24"/>
     </row>
@@ -2181,7 +2181,7 @@
       <c r="J24" s="27"/>
       <c r="K24" s="24"/>
     </row>
-    <row r="25" spans="1:13" s="1" customFormat="1">
+    <row r="25" spans="1:13" s="1" customFormat="1" ht="15">
       <c r="A25" s="21">
         <v>4</v>
       </c>
@@ -2206,7 +2206,7 @@
       </c>
       <c r="C26" s="22">
         <f>C22</f>
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="D26" s="23">
         <f>D22</f>
@@ -2219,7 +2219,7 @@
       <c r="F26" s="24"/>
       <c r="G26" s="36">
         <f>PRODUCT(C26:F26)</f>
-        <v>0</v>
+        <v>18.48</v>
       </c>
       <c r="H26" s="25"/>
       <c r="I26" s="26"/>
@@ -2237,7 +2237,7 @@
       <c r="F27" s="24"/>
       <c r="G27" s="27">
         <f>SUM(G26:G26)</f>
-        <v>0</v>
+        <v>18.48</v>
       </c>
       <c r="H27" s="25" t="s">
         <v>31</v>
@@ -2247,7 +2247,7 @@
       </c>
       <c r="J27" s="27">
         <f>G27*I27</f>
-        <v>0</v>
+        <v>18756.6456</v>
       </c>
       <c r="K27" s="24"/>
     </row>
@@ -2265,7 +2265,7 @@
       <c r="I28" s="26"/>
       <c r="J28" s="27">
         <f>0.13*G27*8617.2/10</f>
-        <v>0</v>
+        <v>2070.1961280000005</v>
       </c>
       <c r="K28" s="24"/>
     </row>
@@ -2306,7 +2306,7 @@
       </c>
       <c r="C31" s="22">
         <f>C26</f>
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="D31" s="23">
         <f>D26</f>
@@ -2321,7 +2321,7 @@
       </c>
       <c r="G31" s="36">
         <f>PRODUCT(C31:F31)</f>
-        <v>0</v>
+        <v>1.3859999999999999</v>
       </c>
       <c r="H31" s="25"/>
       <c r="I31" s="26"/>
@@ -2339,7 +2339,7 @@
       <c r="F32" s="24"/>
       <c r="G32" s="27">
         <f>SUM(G31:G31)</f>
-        <v>0</v>
+        <v>1.3859999999999999</v>
       </c>
       <c r="H32" s="25" t="s">
         <v>36</v>
@@ -2349,7 +2349,7 @@
       </c>
       <c r="J32" s="27">
         <f>G32*I32</f>
-        <v>0</v>
+        <v>17994.5766</v>
       </c>
       <c r="K32" s="24"/>
     </row>
@@ -2367,7 +2367,7 @@
       <c r="I33" s="26"/>
       <c r="J33" s="27">
         <f>0.13*G32*8078.11</f>
-        <v>0</v>
+        <v>1455.5138598000001</v>
       </c>
       <c r="K33" s="24"/>
     </row>
@@ -2440,7 +2440,7 @@
       <c r="I37" s="7"/>
       <c r="J37" s="7">
         <f>SUM(J10:J36)</f>
-        <v>86484.903463504539</v>
+        <v>79624.892360125028</v>
       </c>
       <c r="K37" s="4"/>
       <c r="M37" s="29"/>
@@ -2471,11 +2471,11 @@
       <c r="B39" s="11" t="s">
         <v>22</v>
       </c>
-      <c r="C39" s="75">
+      <c r="C39" s="81">
         <f>J37</f>
-        <v>86484.903463504539</v>
-      </c>
-      <c r="D39" s="76"/>
+        <v>79624.892360125028</v>
+      </c>
+      <c r="D39" s="82"/>
       <c r="E39" s="10">
         <v>100</v>
       </c>
@@ -2509,10 +2509,10 @@
       <c r="B40" s="11" t="s">
         <v>17</v>
       </c>
-      <c r="C40" s="79">
+      <c r="C40" s="84">
         <v>70000</v>
       </c>
-      <c r="D40" s="80"/>
+      <c r="D40" s="85"/>
       <c r="E40" s="10"/>
       <c r="M40" s="29"/>
       <c r="N40" s="30"/>
@@ -2538,13 +2538,13 @@
       <c r="B41" s="11" t="s">
         <v>18</v>
       </c>
-      <c r="C41" s="79">
+      <c r="C41" s="84">
         <v>35000</v>
       </c>
-      <c r="D41" s="80"/>
+      <c r="D41" s="85"/>
       <c r="E41" s="10">
         <f>C41/C39*100</f>
-        <v>40.469490741548356</v>
+        <v>43.956103377450198</v>
       </c>
       <c r="M41" s="29"/>
       <c r="N41" s="29"/>
@@ -2570,14 +2570,14 @@
       <c r="B42" s="11" t="s">
         <v>19</v>
       </c>
-      <c r="C42" s="81">
+      <c r="C42" s="86">
         <f>C39-C41</f>
-        <v>51484.903463504539</v>
-      </c>
-      <c r="D42" s="81"/>
+        <v>44624.892360125028</v>
+      </c>
+      <c r="D42" s="86"/>
       <c r="E42" s="10">
         <f>100-E41</f>
-        <v>59.530509258451644</v>
+        <v>56.043896622549802</v>
       </c>
       <c r="M42" s="29"/>
       <c r="N42" s="29"/>
@@ -2603,11 +2603,11 @@
       <c r="B43" s="11" t="s">
         <v>20</v>
       </c>
-      <c r="C43" s="75">
+      <c r="C43" s="81">
         <f>C40*0.03</f>
         <v>2100</v>
       </c>
-      <c r="D43" s="76"/>
+      <c r="D43" s="82"/>
       <c r="E43" s="10">
         <v>3</v>
       </c>
@@ -2635,11 +2635,11 @@
       <c r="B44" s="11" t="s">
         <v>21</v>
       </c>
-      <c r="C44" s="75">
+      <c r="C44" s="81">
         <f>C40*0.02</f>
         <v>1400</v>
       </c>
-      <c r="D44" s="76"/>
+      <c r="D44" s="82"/>
       <c r="E44" s="10">
         <v>2</v>
       </c>
@@ -2665,13 +2665,6 @@
     </row>
   </sheetData>
   <mergeCells count="15">
-    <mergeCell ref="A6:G6"/>
-    <mergeCell ref="H6:K6"/>
-    <mergeCell ref="A1:K1"/>
-    <mergeCell ref="A2:K2"/>
-    <mergeCell ref="A3:K3"/>
-    <mergeCell ref="A4:K4"/>
-    <mergeCell ref="A5:K5"/>
     <mergeCell ref="C43:D43"/>
     <mergeCell ref="C44:D44"/>
     <mergeCell ref="A7:F7"/>
@@ -2680,6 +2673,13 @@
     <mergeCell ref="C40:D40"/>
     <mergeCell ref="C41:D41"/>
     <mergeCell ref="C42:D42"/>
+    <mergeCell ref="A6:G6"/>
+    <mergeCell ref="H6:K6"/>
+    <mergeCell ref="A1:K1"/>
+    <mergeCell ref="A2:K2"/>
+    <mergeCell ref="A3:K3"/>
+    <mergeCell ref="A4:K4"/>
+    <mergeCell ref="A5:K5"/>
   </mergeCells>
   <printOptions horizontalCentered="1"/>
   <pageMargins left="0.70866141732283472" right="0.70866141732283472" top="0.74803149606299213" bottom="0.74803149606299213" header="0.31496062992125984" footer="0.31496062992125984"/>
@@ -2695,21 +2695,21 @@
   <dimension ref="A1:H14"/>
   <sheetViews>
     <sheetView workbookViewId="0">
-      <selection activeCell="F9" sqref="F9"/>
+      <selection activeCell="F7" sqref="F7"/>
     </sheetView>
   </sheetViews>
-  <sheetFormatPr defaultColWidth="9.140625" defaultRowHeight="15"/>
+  <sheetFormatPr defaultColWidth="9.109375" defaultRowHeight="14.4"/>
   <cols>
-    <col min="1" max="1" width="7.28515625" customWidth="1"/>
+    <col min="1" max="1" width="7.33203125" customWidth="1"/>
     <col min="2" max="2" width="13" customWidth="1"/>
-    <col min="3" max="3" width="20.28515625" customWidth="1"/>
-    <col min="4" max="4" width="10.5703125" customWidth="1"/>
+    <col min="3" max="3" width="20.33203125" customWidth="1"/>
+    <col min="4" max="4" width="10.5546875" customWidth="1"/>
     <col min="5" max="5" width="12" customWidth="1"/>
-    <col min="6" max="6" width="14.28515625" customWidth="1"/>
-    <col min="7" max="7" width="16.28515625" customWidth="1"/>
+    <col min="6" max="6" width="14.33203125" customWidth="1"/>
+    <col min="7" max="7" width="16.33203125" customWidth="1"/>
     <col min="8" max="8" width="15" customWidth="1"/>
     <col min="9" max="9" width="0" hidden="1" customWidth="1"/>
-    <col min="12" max="12" width="16.7109375" customWidth="1"/>
+    <col min="12" max="12" width="16.6640625" customWidth="1"/>
   </cols>
   <sheetData>
     <row r="1" spans="1:8" s="43" customFormat="1" ht="20.100000000000001" customHeight="1">
@@ -2718,7 +2718,7 @@
         <v>#REF!</v>
       </c>
       <c r="B1" s="87" t="s">
-        <v>40</v>
+        <v>72</v>
       </c>
       <c r="C1" s="88"/>
       <c r="D1" s="88"/>
@@ -2729,10 +2729,10 @@
     </row>
     <row r="2" spans="1:8" s="43" customFormat="1" ht="20.100000000000001" customHeight="1">
       <c r="A2" s="44" t="s">
+        <v>40</v>
+      </c>
+      <c r="B2" s="89" t="s">
         <v>41</v>
-      </c>
-      <c r="B2" s="89" t="s">
-        <v>42</v>
       </c>
       <c r="C2" s="90"/>
       <c r="D2" s="90"/>
@@ -2743,39 +2743,39 @@
     </row>
     <row r="3" spans="1:8" s="43" customFormat="1" ht="33" customHeight="1">
       <c r="B3" s="45" t="s">
+        <v>42</v>
+      </c>
+      <c r="C3" s="45" t="s">
         <v>43</v>
       </c>
-      <c r="C3" s="45" t="s">
+      <c r="D3" s="45" t="s">
         <v>44</v>
       </c>
-      <c r="D3" s="45" t="s">
+      <c r="E3" s="45" t="s">
         <v>45</v>
       </c>
-      <c r="E3" s="45" t="s">
+      <c r="F3" s="45" t="s">
         <v>46</v>
       </c>
-      <c r="F3" s="45" t="s">
+      <c r="G3" s="45" t="s">
         <v>47</v>
       </c>
-      <c r="G3" s="45" t="s">
+      <c r="H3" s="45" t="s">
         <v>48</v>
-      </c>
-      <c r="H3" s="45" t="s">
-        <v>49</v>
       </c>
     </row>
     <row r="4" spans="1:8" s="43" customFormat="1" ht="20.100000000000001" customHeight="1">
       <c r="B4" s="91" t="s">
+        <v>49</v>
+      </c>
+      <c r="C4" s="46" t="s">
         <v>50</v>
-      </c>
-      <c r="C4" s="46" t="s">
-        <v>51</v>
       </c>
       <c r="D4" s="47">
         <v>1.1000000000000001</v>
       </c>
       <c r="E4" s="48" t="s">
-        <v>52</v>
+        <v>51</v>
       </c>
       <c r="F4" s="49">
         <v>1225</v>
@@ -2789,13 +2789,13 @@
     <row r="5" spans="1:8" s="43" customFormat="1" ht="20.100000000000001" customHeight="1">
       <c r="B5" s="92"/>
       <c r="C5" s="51" t="s">
-        <v>53</v>
+        <v>52</v>
       </c>
       <c r="D5" s="52">
         <v>1.25</v>
       </c>
       <c r="E5" s="51" t="s">
-        <v>52</v>
+        <v>51</v>
       </c>
       <c r="F5" s="53">
         <v>920</v>
@@ -2809,18 +2809,18 @@
         <v>2497.5</v>
       </c>
     </row>
-    <row r="6" spans="1:8" s="43" customFormat="1" ht="16.5">
+    <row r="6" spans="1:8" s="43" customFormat="1" ht="16.2">
       <c r="B6" s="93" t="s">
-        <v>54</v>
+        <v>53</v>
       </c>
       <c r="C6" s="55" t="s">
-        <v>67</v>
+        <v>66</v>
       </c>
       <c r="D6" s="56">
         <v>12</v>
       </c>
       <c r="E6" s="57" t="s">
-        <v>55</v>
+        <v>54</v>
       </c>
       <c r="F6" s="58">
         <f>313.4529148</f>
@@ -2832,16 +2832,16 @@
       </c>
       <c r="H6" s="59"/>
     </row>
-    <row r="7" spans="1:8" s="43" customFormat="1" ht="16.5">
+    <row r="7" spans="1:8" s="43" customFormat="1" ht="16.2">
       <c r="B7" s="94"/>
       <c r="C7" s="57" t="s">
-        <v>56</v>
+        <v>55</v>
       </c>
       <c r="D7" s="56">
         <v>30</v>
       </c>
       <c r="E7" s="57" t="s">
-        <v>57</v>
+        <v>56</v>
       </c>
       <c r="F7" s="58">
         <v>34.130000000000003</v>
@@ -2855,13 +2855,13 @@
     <row r="8" spans="1:8" s="43" customFormat="1" ht="20.100000000000001" customHeight="1">
       <c r="B8" s="94"/>
       <c r="C8" s="57" t="s">
-        <v>58</v>
+        <v>57</v>
       </c>
       <c r="D8" s="56">
         <v>25</v>
       </c>
       <c r="E8" s="57" t="s">
-        <v>57</v>
+        <v>56</v>
       </c>
       <c r="F8" s="58">
         <f>'[1]update Rate'!$N$131</f>
@@ -2876,13 +2876,13 @@
     <row r="9" spans="1:8" s="61" customFormat="1" ht="20.100000000000001" customHeight="1">
       <c r="B9" s="95"/>
       <c r="C9" s="62" t="s">
-        <v>59</v>
+        <v>58</v>
       </c>
       <c r="D9" s="63">
         <v>55</v>
       </c>
       <c r="E9" s="62" t="s">
-        <v>57</v>
+        <v>56</v>
       </c>
       <c r="F9" s="64">
         <f>'[1]update Rate'!$N$132</f>
@@ -2893,56 +2893,56 @@
         <v>165</v>
       </c>
       <c r="H9" s="65">
-        <f>SUM(G6+G7+G8+G9)</f>
-        <v>5298.54</v>
+        <f>0*SUM(G6+G7+G8+G9)</f>
+        <v>0</v>
       </c>
     </row>
     <row r="10" spans="1:8" s="43" customFormat="1" ht="20.100000000000001" customHeight="1">
       <c r="F10" s="43" t="s">
-        <v>60</v>
+        <v>59</v>
       </c>
       <c r="G10" s="66"/>
       <c r="H10" s="53">
         <f>SUM(H5:H9)</f>
-        <v>7796.04</v>
+        <v>2497.5</v>
       </c>
     </row>
     <row r="11" spans="1:8" s="43" customFormat="1" ht="20.100000000000001" customHeight="1">
       <c r="B11" s="67" t="s">
+        <v>60</v>
+      </c>
+      <c r="F11" s="43" t="s">
         <v>61</v>
-      </c>
-      <c r="F11" s="43" t="s">
-        <v>62</v>
       </c>
       <c r="G11" s="66"/>
       <c r="H11" s="68">
         <f>FLOOR(H10*0.15,0.01)</f>
-        <v>1169.4000000000001</v>
+        <v>374.62</v>
       </c>
     </row>
     <row r="12" spans="1:8" s="43" customFormat="1" ht="20.100000000000001" customHeight="1">
       <c r="A12" s="69"/>
       <c r="B12" s="70">
         <f>+H12</f>
-        <v>8965.44</v>
+        <v>2872.12</v>
       </c>
       <c r="C12" s="69" t="s">
-        <v>63</v>
+        <v>62</v>
       </c>
       <c r="D12" s="71">
         <f>INT(B12/B13*100)/100</f>
-        <v>896.54</v>
+        <v>287.20999999999998</v>
       </c>
       <c r="E12" s="43" t="s">
+        <v>63</v>
+      </c>
+      <c r="F12" s="43" t="s">
         <v>64</v>
-      </c>
-      <c r="F12" s="43" t="s">
-        <v>65</v>
       </c>
       <c r="G12" s="66"/>
       <c r="H12" s="71">
         <f>SUM(H10:H11)</f>
-        <v>8965.44</v>
+        <v>2872.12</v>
       </c>
     </row>
     <row r="13" spans="1:8" s="43" customFormat="1" ht="20.100000000000001" customHeight="1">
@@ -2950,9 +2950,9 @@
         <v>10</v>
       </c>
     </row>
-    <row r="14" spans="1:8" s="43" customFormat="1">
+    <row r="14" spans="1:8" s="43" customFormat="1" ht="15">
       <c r="A14" s="73" t="s">
-        <v>66</v>
+        <v>65</v>
       </c>
     </row>
   </sheetData>

--- a/ofc/पशु शाखा इस्तिमेट/subash.xlsx
+++ b/ofc/पशु शाखा इस्तिमेट/subash.xlsx
@@ -2,14 +2,14 @@
 <file path=xl/workbook.xml><?xml version="1.0" encoding="utf-8"?>
 <workbook xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x15="http://schemas.microsoft.com/office/spreadsheetml/2010/11/main" mc:Ignorable="x15">
   <fileVersion appName="xl" lastEdited="6" lowestEdited="6" rupBuild="14420"/>
-  <workbookPr defaultThemeVersion="164011"/>
+  <workbookPr/>
   <mc:AlternateContent xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
     <mc:Choice Requires="x15">
-      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="H:\081_082\ofc\ofc\पशु शाखा इस्तिमेट\"/>
+      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="D:\New folder\081-082\ofc\ofc\पशु शाखा इस्तिमेट\"/>
     </mc:Choice>
   </mc:AlternateContent>
   <bookViews>
-    <workbookView xWindow="-120" yWindow="-120" windowWidth="20736" windowHeight="11160"/>
+    <workbookView xWindow="-120" yWindow="-120" windowWidth="20730" windowHeight="11160"/>
   </bookViews>
   <sheets>
     <sheet name="as per mistry" sheetId="19" r:id="rId1"/>
@@ -43,13 +43,13 @@
     <definedName name="description_784">[3]Abstract!$B$300</definedName>
     <definedName name="excavator">[2]Equipment_Rate!$J$19</definedName>
     <definedName name="generator">[2]Equipment_Rate!$J$20</definedName>
-    <definedName name="_xlnm.Print_Area" localSheetId="0">'as per mistry'!$A$1:$K$44</definedName>
+    <definedName name="_xlnm.Print_Area" localSheetId="0">'as per mistry'!$A$1:$K$33</definedName>
     <definedName name="_xlnm.Print_Titles" localSheetId="0">'as per mistry'!$1:$8</definedName>
     <definedName name="skilled">[2]District_Rate!$D$148</definedName>
     <definedName name="skilled_blacksmith">[2]District_Rate!$D$149</definedName>
     <definedName name="unskilled">[2]District_Rate!$D$156</definedName>
   </definedNames>
-  <calcPr calcId="162913"/>
+  <calcPr calcId="152511"/>
   <extLst>
     <ext xmlns:x15="http://schemas.microsoft.com/office/spreadsheetml/2010/11/main" uri="{140A7094-0E35-4892-8432-C4D2E57EDEB5}">
       <x15:workbookPr chartTrackingRefBase="1"/>
@@ -59,7 +59,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="86" uniqueCount="73">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="72" uniqueCount="65">
   <si>
     <t>Government of Nepal</t>
   </si>
@@ -139,21 +139,6 @@
     <t>sub-total</t>
   </si>
   <si>
-    <t>Length (m)</t>
-  </si>
-  <si>
-    <t>Total Weight (kg)</t>
-  </si>
-  <si>
-    <t>Unit length (Kg/m)</t>
-  </si>
-  <si>
-    <t>sfnf] kmnfd] kfO{ksf] 6«; agfO{ h8fg ug]{ sfd</t>
-  </si>
-  <si>
-    <t>Kg</t>
-  </si>
-  <si>
     <t>sqm</t>
   </si>
   <si>
@@ -166,16 +151,7 @@
     <t xml:space="preserve">g/d k|sf/sf] Sn] / l;N6L df6f]df ;j} lsl;dsf] vGg] sfd </t>
   </si>
   <si>
-    <t>;-for footing</t>
-  </si>
-  <si>
     <t>cum</t>
-  </si>
-  <si>
-    <t xml:space="preserve">hu leQf kvf{ndf l;d]G6 s+lqm6 ug]{ sfd -lk=;L=;L= !M@M$_  </t>
-  </si>
-  <si>
-    <t>;'Vvf O{6f RofK6f] 5fKg] sfd</t>
   </si>
   <si>
     <t>no.</t>
@@ -291,6 +267,24 @@
     </r>
   </si>
   <si>
+    <t xml:space="preserve">)=@$ dL=dL= afSnf] ;L=hL=cfO{= 5fgf 5fpg] sfd </t>
+  </si>
+  <si>
+    <t>-for passage flooring</t>
+  </si>
+  <si>
+    <t>Project:- फ्रेंश कृषि तथा पशुपालन</t>
+  </si>
+  <si>
+    <t xml:space="preserve">Date: 2082/02/05  </t>
+  </si>
+  <si>
+    <t>%) dL=dL= df]6f] x]eL 8o"6L OG6/nls+u s+lqm6Ans la5ofpg]] sfd</t>
+  </si>
+  <si>
+    <t>dfn;fdfg pknAw u/L )=@^ dL=dL= afSnf] ;L=hL=cfO{= zL6 -h:tf kftfsf]_ 5fgf 5fpg] sfd k'/f .</t>
+  </si>
+  <si>
     <r>
       <t>CGI</t>
     </r>
@@ -306,7 +300,7 @@
         <sz val="10"/>
         <rFont val="Preeti"/>
       </rPr>
-      <t xml:space="preserve">kftf #) u]h </t>
+      <t xml:space="preserve">kftf @* u]h </t>
     </r>
     <r>
       <rPr>
@@ -314,35 +308,17 @@
         <rFont val="Arial"/>
         <family val="2"/>
       </rPr>
-      <t>(0.24mm)</t>
+      <t>(0.26mm)</t>
     </r>
-  </si>
-  <si>
-    <t xml:space="preserve">)=@$ dL=dL= afSnf] ;L=hL=cfO{= 5fgf 5fpg] sfd </t>
-  </si>
-  <si>
-    <t>-for passage flooring</t>
-  </si>
-  <si>
-    <t>Project:- फ्रेंश कृषि तथा पशुपालन</t>
-  </si>
-  <si>
-    <t xml:space="preserve">Date: 2082/02/05  </t>
-  </si>
-  <si>
-    <t>-MS square pipe of 1.5"*1.5" of 1.2mm thickness</t>
-  </si>
-  <si>
-    <t>dfn;fdfg pknAw u/L )=@$ dL=dL= afSnf] ;L=hL=cfO{= zL6 -h:tf kftfsf]_ 5fgf 5fpg] sfd k'/f .</t>
   </si>
 </sst>
 </file>
 
 <file path=xl/styles.xml><?xml version="1.0" encoding="utf-8"?>
-<styleSheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:x16r2="http://schemas.microsoft.com/office/spreadsheetml/2015/02/main" mc:Ignorable="x14ac x16r2">
+<styleSheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
   <numFmts count="2">
-    <numFmt numFmtId="164" formatCode="_(* #,##0.00_);_(* \(#,##0.00\);_(* &quot;-&quot;??_);_(@_)"/>
-    <numFmt numFmtId="165" formatCode="0.0"/>
+    <numFmt numFmtId="43" formatCode="_(* #,##0.00_);_(* \(#,##0.00\);_(* &quot;-&quot;??_);_(@_)"/>
+    <numFmt numFmtId="164" formatCode="0.0"/>
   </numFmts>
   <fonts count="26">
     <font>
@@ -623,20 +599,20 @@
   </borders>
   <cellStyleXfs count="8">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0"/>
-    <xf numFmtId="164" fontId="1" fillId="0" borderId="0" applyFont="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
+    <xf numFmtId="43" fontId="1" fillId="0" borderId="0" applyFont="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
     <xf numFmtId="0" fontId="11" fillId="0" borderId="0"/>
-    <xf numFmtId="164" fontId="11" fillId="0" borderId="0" applyFont="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
+    <xf numFmtId="43" fontId="11" fillId="0" borderId="0" applyFont="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
     <xf numFmtId="0" fontId="11" fillId="0" borderId="0"/>
     <xf numFmtId="0" fontId="11" fillId="0" borderId="0"/>
     <xf numFmtId="0" fontId="11" fillId="0" borderId="0"/>
     <xf numFmtId="0" fontId="11" fillId="0" borderId="0"/>
   </cellStyleXfs>
-  <cellXfs count="96">
+  <cellXfs count="93">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0"/>
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyAlignment="1">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="164" fontId="7" fillId="0" borderId="0" xfId="1" applyFont="1"/>
+    <xf numFmtId="43" fontId="7" fillId="0" borderId="0" xfId="1" applyFont="1"/>
     <xf numFmtId="0" fontId="7" fillId="0" borderId="1" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center"/>
     </xf>
@@ -644,7 +620,7 @@
     <xf numFmtId="0" fontId="2" fillId="0" borderId="0" xfId="0" applyFont="1"/>
     <xf numFmtId="2" fontId="0" fillId="0" borderId="1" xfId="0" applyNumberFormat="1" applyBorder="1"/>
     <xf numFmtId="2" fontId="2" fillId="0" borderId="1" xfId="0" applyNumberFormat="1" applyFont="1" applyBorder="1"/>
-    <xf numFmtId="165" fontId="0" fillId="0" borderId="1" xfId="0" applyNumberFormat="1" applyBorder="1"/>
+    <xf numFmtId="164" fontId="0" fillId="0" borderId="1" xfId="0" applyNumberFormat="1" applyBorder="1"/>
     <xf numFmtId="0" fontId="2" fillId="0" borderId="1" xfId="0" applyFont="1" applyBorder="1"/>
     <xf numFmtId="2" fontId="0" fillId="0" borderId="1" xfId="0" applyNumberFormat="1" applyBorder="1" applyAlignment="1">
       <alignment vertical="center"/>
@@ -661,7 +637,7 @@
     <xf numFmtId="0" fontId="2" fillId="0" borderId="0" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="right" vertical="center"/>
     </xf>
-    <xf numFmtId="164" fontId="2" fillId="0" borderId="0" xfId="1" applyFont="1" applyBorder="1" applyAlignment="1">
+    <xf numFmtId="43" fontId="2" fillId="0" borderId="0" xfId="1" applyFont="1" applyBorder="1" applyAlignment="1">
       <alignment vertical="center"/>
     </xf>
     <xf numFmtId="0" fontId="2" fillId="0" borderId="0" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
@@ -670,7 +646,7 @@
     <xf numFmtId="0" fontId="7" fillId="0" borderId="1" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="top" wrapText="1"/>
     </xf>
-    <xf numFmtId="164" fontId="7" fillId="0" borderId="1" xfId="1" applyFont="1" applyBorder="1" applyAlignment="1">
+    <xf numFmtId="43" fontId="7" fillId="0" borderId="1" xfId="1" applyFont="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center"/>
     </xf>
     <xf numFmtId="0" fontId="7" fillId="0" borderId="1" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
@@ -682,7 +658,7 @@
     <xf numFmtId="1" fontId="8" fillId="0" borderId="1" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="165" fontId="9" fillId="0" borderId="1" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+    <xf numFmtId="164" fontId="9" fillId="0" borderId="1" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment vertical="center"/>
     </xf>
     <xf numFmtId="2" fontId="9" fillId="0" borderId="1" xfId="1" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
@@ -698,9 +674,6 @@
       <alignment vertical="center"/>
     </xf>
     <xf numFmtId="2" fontId="2" fillId="0" borderId="1" xfId="0" applyNumberFormat="1" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="2" fontId="0" fillId="0" borderId="1" xfId="0" applyNumberFormat="1" applyFont="1" applyBorder="1" applyAlignment="1">
       <alignment vertical="center"/>
     </xf>
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyBorder="1"/>
@@ -708,12 +681,6 @@
     <xf numFmtId="2" fontId="0" fillId="0" borderId="0" xfId="0" applyNumberFormat="1"/>
     <xf numFmtId="2" fontId="0" fillId="0" borderId="0" xfId="0" applyNumberFormat="1" applyFill="1" applyBorder="1"/>
     <xf numFmtId="2" fontId="0" fillId="0" borderId="1" xfId="0" applyNumberFormat="1" applyFont="1" applyBorder="1"/>
-    <xf numFmtId="2" fontId="9" fillId="0" borderId="1" xfId="1" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment vertical="center" wrapText="1"/>
-    </xf>
-    <xf numFmtId="2" fontId="9" fillId="0" borderId="1" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment vertical="center" wrapText="1"/>
-    </xf>
     <xf numFmtId="2" fontId="14" fillId="0" borderId="1" xfId="0" applyNumberFormat="1" applyFont="1" applyBorder="1" applyAlignment="1">
       <alignment vertical="center"/>
     </xf>
@@ -726,7 +693,7 @@
     <xf numFmtId="0" fontId="10" fillId="0" borderId="1" xfId="0" quotePrefix="1" applyFont="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="right" vertical="center" wrapText="1"/>
     </xf>
-    <xf numFmtId="165" fontId="0" fillId="0" borderId="1" xfId="0" applyNumberFormat="1" applyBorder="1" applyAlignment="1">
+    <xf numFmtId="164" fontId="0" fillId="0" borderId="1" xfId="0" applyNumberFormat="1" applyBorder="1" applyAlignment="1">
       <alignment vertical="center"/>
     </xf>
     <xf numFmtId="0" fontId="3" fillId="0" borderId="1" xfId="0" quotePrefix="1" applyFont="1" applyBorder="1" applyAlignment="1">
@@ -1312,33 +1279,33 @@
       <sheetName val="PPMO_BOQ"/>
     </sheetNames>
     <sheetDataSet>
-      <sheetData sheetId="0" refreshError="1"/>
-      <sheetData sheetId="1" refreshError="1">
+      <sheetData sheetId="0"/>
+      <sheetData sheetId="1">
         <row r="33">
           <cell r="B33" t="str">
             <v>Earthwork Excavation in Cutting., Roadway Excavation in all types of Soil by Manual Means ., Roadway Excavation in all types of soil as per drawing and technical specification, including removal of stumps and other deleterious matter, with all lifts and lead as per Drawing and instruction of the Engineer.</v>
           </cell>
         </row>
       </sheetData>
-      <sheetData sheetId="2" refreshError="1"/>
-      <sheetData sheetId="3" refreshError="1"/>
-      <sheetData sheetId="4" refreshError="1"/>
-      <sheetData sheetId="5" refreshError="1"/>
-      <sheetData sheetId="6" refreshError="1"/>
-      <sheetData sheetId="7" refreshError="1"/>
-      <sheetData sheetId="8" refreshError="1"/>
-      <sheetData sheetId="9" refreshError="1"/>
-      <sheetData sheetId="10" refreshError="1"/>
-      <sheetData sheetId="11" refreshError="1"/>
-      <sheetData sheetId="12" refreshError="1"/>
-      <sheetData sheetId="13" refreshError="1"/>
-      <sheetData sheetId="14" refreshError="1"/>
-      <sheetData sheetId="15" refreshError="1"/>
-      <sheetData sheetId="16" refreshError="1"/>
-      <sheetData sheetId="17" refreshError="1"/>
-      <sheetData sheetId="18" refreshError="1"/>
-      <sheetData sheetId="19" refreshError="1"/>
-      <sheetData sheetId="20" refreshError="1"/>
+      <sheetData sheetId="2"/>
+      <sheetData sheetId="3"/>
+      <sheetData sheetId="4"/>
+      <sheetData sheetId="5"/>
+      <sheetData sheetId="6"/>
+      <sheetData sheetId="7"/>
+      <sheetData sheetId="8"/>
+      <sheetData sheetId="9"/>
+      <sheetData sheetId="10"/>
+      <sheetData sheetId="11"/>
+      <sheetData sheetId="12"/>
+      <sheetData sheetId="13"/>
+      <sheetData sheetId="14"/>
+      <sheetData sheetId="15"/>
+      <sheetData sheetId="16"/>
+      <sheetData sheetId="17"/>
+      <sheetData sheetId="18"/>
+      <sheetData sheetId="19"/>
+      <sheetData sheetId="20"/>
     </sheetDataSet>
   </externalBook>
 </externalLink>
@@ -1666,139 +1633,139 @@
 
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
-  <dimension ref="A1:AE44"/>
+  <dimension ref="A1:AE33"/>
   <sheetViews>
-    <sheetView tabSelected="1" topLeftCell="A22" zoomScaleNormal="100" zoomScaleSheetLayoutView="80" workbookViewId="0">
-      <selection activeCell="B41" sqref="B41"/>
+    <sheetView tabSelected="1" topLeftCell="A13" zoomScaleNormal="100" zoomScaleSheetLayoutView="80" workbookViewId="0">
+      <selection activeCell="J13" sqref="J13"/>
     </sheetView>
   </sheetViews>
-  <sheetFormatPr defaultRowHeight="14.4"/>
+  <sheetFormatPr defaultRowHeight="15"/>
   <cols>
-    <col min="1" max="1" width="5.109375" style="5" bestFit="1" customWidth="1"/>
-    <col min="2" max="2" width="30.109375" customWidth="1"/>
-    <col min="3" max="3" width="5.5546875" bestFit="1" customWidth="1"/>
-    <col min="4" max="4" width="6.6640625" customWidth="1"/>
-    <col min="5" max="5" width="7.88671875" customWidth="1"/>
-    <col min="6" max="6" width="7.109375" customWidth="1"/>
-    <col min="7" max="7" width="9.33203125" style="5" customWidth="1"/>
-    <col min="8" max="8" width="6.33203125" style="5" bestFit="1" customWidth="1"/>
-    <col min="9" max="9" width="9.33203125" style="5" bestFit="1" customWidth="1"/>
-    <col min="10" max="10" width="10.5546875" style="5" bestFit="1" customWidth="1"/>
-    <col min="11" max="11" width="9.88671875" bestFit="1" customWidth="1"/>
-    <col min="14" max="14" width="10.5546875" bestFit="1" customWidth="1"/>
-    <col min="15" max="15" width="16.44140625" bestFit="1" customWidth="1"/>
-    <col min="16" max="16" width="12.109375" customWidth="1"/>
-    <col min="17" max="17" width="14.44140625" customWidth="1"/>
+    <col min="1" max="1" width="5.140625" style="5" bestFit="1" customWidth="1"/>
+    <col min="2" max="2" width="30.140625" customWidth="1"/>
+    <col min="3" max="3" width="5.5703125" bestFit="1" customWidth="1"/>
+    <col min="4" max="4" width="6.7109375" customWidth="1"/>
+    <col min="5" max="5" width="7.85546875" customWidth="1"/>
+    <col min="6" max="6" width="7.140625" customWidth="1"/>
+    <col min="7" max="7" width="9.28515625" style="5" customWidth="1"/>
+    <col min="8" max="8" width="6.28515625" style="5" bestFit="1" customWidth="1"/>
+    <col min="9" max="9" width="9.28515625" style="5" bestFit="1" customWidth="1"/>
+    <col min="10" max="10" width="10.5703125" style="5" bestFit="1" customWidth="1"/>
+    <col min="11" max="11" width="9.85546875" bestFit="1" customWidth="1"/>
+    <col min="14" max="14" width="10.5703125" bestFit="1" customWidth="1"/>
+    <col min="15" max="15" width="16.42578125" bestFit="1" customWidth="1"/>
+    <col min="16" max="16" width="12.140625" customWidth="1"/>
+    <col min="17" max="17" width="14.42578125" customWidth="1"/>
   </cols>
   <sheetData>
     <row r="1" spans="1:13" s="1" customFormat="1">
-      <c r="A1" s="77" t="s">
+      <c r="A1" s="74" t="s">
         <v>0</v>
       </c>
-      <c r="B1" s="77"/>
-      <c r="C1" s="77"/>
-      <c r="D1" s="77"/>
-      <c r="E1" s="77"/>
-      <c r="F1" s="77"/>
-      <c r="G1" s="77"/>
-      <c r="H1" s="77"/>
-      <c r="I1" s="77"/>
-      <c r="J1" s="77"/>
-      <c r="K1" s="77"/>
-    </row>
-    <row r="2" spans="1:13" s="1" customFormat="1" ht="22.8">
-      <c r="A2" s="78" t="s">
+      <c r="B1" s="74"/>
+      <c r="C1" s="74"/>
+      <c r="D1" s="74"/>
+      <c r="E1" s="74"/>
+      <c r="F1" s="74"/>
+      <c r="G1" s="74"/>
+      <c r="H1" s="74"/>
+      <c r="I1" s="74"/>
+      <c r="J1" s="74"/>
+      <c r="K1" s="74"/>
+    </row>
+    <row r="2" spans="1:13" s="1" customFormat="1" ht="22.5">
+      <c r="A2" s="75" t="s">
         <v>1</v>
       </c>
-      <c r="B2" s="78"/>
-      <c r="C2" s="78"/>
-      <c r="D2" s="78"/>
-      <c r="E2" s="78"/>
-      <c r="F2" s="78"/>
-      <c r="G2" s="78"/>
-      <c r="H2" s="78"/>
-      <c r="I2" s="78"/>
-      <c r="J2" s="78"/>
-      <c r="K2" s="78"/>
+      <c r="B2" s="75"/>
+      <c r="C2" s="75"/>
+      <c r="D2" s="75"/>
+      <c r="E2" s="75"/>
+      <c r="F2" s="75"/>
+      <c r="G2" s="75"/>
+      <c r="H2" s="75"/>
+      <c r="I2" s="75"/>
+      <c r="J2" s="75"/>
+      <c r="K2" s="75"/>
     </row>
     <row r="3" spans="1:13" s="1" customFormat="1">
-      <c r="A3" s="79" t="s">
+      <c r="A3" s="76" t="s">
         <v>2</v>
       </c>
-      <c r="B3" s="79"/>
-      <c r="C3" s="79"/>
-      <c r="D3" s="79"/>
-      <c r="E3" s="79"/>
-      <c r="F3" s="79"/>
-      <c r="G3" s="79"/>
-      <c r="H3" s="79"/>
-      <c r="I3" s="79"/>
-      <c r="J3" s="79"/>
-      <c r="K3" s="79"/>
+      <c r="B3" s="76"/>
+      <c r="C3" s="76"/>
+      <c r="D3" s="76"/>
+      <c r="E3" s="76"/>
+      <c r="F3" s="76"/>
+      <c r="G3" s="76"/>
+      <c r="H3" s="76"/>
+      <c r="I3" s="76"/>
+      <c r="J3" s="76"/>
+      <c r="K3" s="76"/>
     </row>
     <row r="4" spans="1:13" s="1" customFormat="1">
-      <c r="A4" s="79" t="s">
+      <c r="A4" s="76" t="s">
         <v>3</v>
       </c>
-      <c r="B4" s="79"/>
-      <c r="C4" s="79"/>
-      <c r="D4" s="79"/>
-      <c r="E4" s="79"/>
-      <c r="F4" s="79"/>
-      <c r="G4" s="79"/>
-      <c r="H4" s="79"/>
-      <c r="I4" s="79"/>
-      <c r="J4" s="79"/>
-      <c r="K4" s="79"/>
-    </row>
-    <row r="5" spans="1:13" ht="17.399999999999999">
-      <c r="A5" s="80" t="s">
+      <c r="B4" s="76"/>
+      <c r="C4" s="76"/>
+      <c r="D4" s="76"/>
+      <c r="E4" s="76"/>
+      <c r="F4" s="76"/>
+      <c r="G4" s="76"/>
+      <c r="H4" s="76"/>
+      <c r="I4" s="76"/>
+      <c r="J4" s="76"/>
+      <c r="K4" s="76"/>
+    </row>
+    <row r="5" spans="1:13" ht="18.75">
+      <c r="A5" s="77" t="s">
         <v>4</v>
       </c>
-      <c r="B5" s="80"/>
-      <c r="C5" s="80"/>
-      <c r="D5" s="80"/>
-      <c r="E5" s="80"/>
-      <c r="F5" s="80"/>
-      <c r="G5" s="80"/>
-      <c r="H5" s="80"/>
-      <c r="I5" s="80"/>
-      <c r="J5" s="80"/>
-      <c r="K5" s="80"/>
-    </row>
-    <row r="6" spans="1:13" ht="18">
-      <c r="A6" s="75" t="s">
-        <v>69</v>
-      </c>
-      <c r="B6" s="75"/>
-      <c r="C6" s="75"/>
-      <c r="D6" s="75"/>
-      <c r="E6" s="75"/>
-      <c r="F6" s="75"/>
-      <c r="G6" s="75"/>
-      <c r="H6" s="76" t="s">
+      <c r="B5" s="77"/>
+      <c r="C5" s="77"/>
+      <c r="D5" s="77"/>
+      <c r="E5" s="77"/>
+      <c r="F5" s="77"/>
+      <c r="G5" s="77"/>
+      <c r="H5" s="77"/>
+      <c r="I5" s="77"/>
+      <c r="J5" s="77"/>
+      <c r="K5" s="77"/>
+    </row>
+    <row r="6" spans="1:13" ht="18.75">
+      <c r="A6" s="72" t="s">
+        <v>60</v>
+      </c>
+      <c r="B6" s="72"/>
+      <c r="C6" s="72"/>
+      <c r="D6" s="72"/>
+      <c r="E6" s="72"/>
+      <c r="F6" s="72"/>
+      <c r="G6" s="72"/>
+      <c r="H6" s="73" t="s">
         <v>24</v>
       </c>
-      <c r="I6" s="76"/>
-      <c r="J6" s="76"/>
-      <c r="K6" s="76"/>
-    </row>
-    <row r="7" spans="1:13" ht="15.6">
-      <c r="A7" s="83" t="s">
+      <c r="I6" s="73"/>
+      <c r="J6" s="73"/>
+      <c r="K6" s="73"/>
+    </row>
+    <row r="7" spans="1:13" ht="15.75">
+      <c r="A7" s="80" t="s">
         <v>23</v>
       </c>
-      <c r="B7" s="83"/>
-      <c r="C7" s="83"/>
-      <c r="D7" s="83"/>
-      <c r="E7" s="83"/>
-      <c r="F7" s="83"/>
+      <c r="B7" s="80"/>
+      <c r="C7" s="80"/>
+      <c r="D7" s="80"/>
+      <c r="E7" s="80"/>
+      <c r="F7" s="80"/>
       <c r="G7" s="2"/>
-      <c r="H7" s="76" t="s">
-        <v>70</v>
-      </c>
-      <c r="I7" s="76"/>
-      <c r="J7" s="76"/>
-      <c r="K7" s="76"/>
+      <c r="H7" s="73" t="s">
+        <v>61</v>
+      </c>
+      <c r="I7" s="73"/>
+      <c r="J7" s="73"/>
+      <c r="K7" s="73"/>
     </row>
     <row r="8" spans="1:13" ht="15" customHeight="1">
       <c r="A8" s="3" t="s">
@@ -1835,53 +1802,42 @@
         <v>15</v>
       </c>
     </row>
-    <row r="9" spans="1:13" s="1" customFormat="1" ht="41.4">
-      <c r="A9" s="21">
+    <row r="9" spans="1:13" s="1" customFormat="1" ht="30">
+      <c r="A9" s="35">
         <v>1</v>
       </c>
-      <c r="B9" s="37" t="s">
-        <v>29</v>
-      </c>
-      <c r="C9" s="22" t="s">
-        <v>7</v>
-      </c>
-      <c r="D9" s="34" t="s">
-        <v>26</v>
-      </c>
-      <c r="E9" s="35" t="s">
-        <v>28</v>
-      </c>
-      <c r="F9" s="35" t="s">
-        <v>27</v>
-      </c>
-      <c r="G9" s="35"/>
-      <c r="H9" s="25"/>
-      <c r="I9" s="26"/>
+      <c r="B9" s="71" t="s">
+        <v>58</v>
+      </c>
+      <c r="C9" s="37"/>
+      <c r="D9" s="10"/>
+      <c r="E9" s="10"/>
+      <c r="F9" s="10"/>
+      <c r="G9" s="33"/>
+      <c r="H9" s="27"/>
+      <c r="I9" s="27"/>
       <c r="J9" s="27"/>
-      <c r="K9" s="24"/>
-    </row>
-    <row r="10" spans="1:13" s="1" customFormat="1" ht="27.6">
-      <c r="A10" s="38"/>
-      <c r="B10" s="39" t="s">
-        <v>71</v>
-      </c>
-      <c r="C10" s="40">
-        <v>5</v>
-      </c>
-      <c r="D10" s="10">
-        <f>14/3.281</f>
-        <v>4.2669917708015843</v>
+      <c r="K9" s="11"/>
+      <c r="M9" s="12"/>
+    </row>
+    <row r="10" spans="1:13" s="1" customFormat="1">
+      <c r="A10" s="35"/>
+      <c r="B10" s="36"/>
+      <c r="C10" s="37">
+        <v>1</v>
+      </c>
+      <c r="D10" s="23">
+        <f>5.63+6.09</f>
+        <v>11.719999999999999</v>
       </c>
       <c r="E10" s="10">
-        <v>1.61</v>
-      </c>
-      <c r="F10" s="10">
-        <f t="shared" ref="F10:F12" si="0">PRODUCT(C10:E10)</f>
-        <v>34.349283754952758</v>
-      </c>
-      <c r="G10" s="36">
-        <f t="shared" ref="G10:G12" si="1">F10</f>
-        <v>34.349283754952758</v>
+        <f>10/3.281</f>
+        <v>3.047851264858275</v>
+      </c>
+      <c r="F10" s="10"/>
+      <c r="G10" s="33">
+        <f>PRODUCT(C10:F10)</f>
+        <v>35.720816824138979</v>
       </c>
       <c r="H10" s="27"/>
       <c r="I10" s="27"/>
@@ -1890,88 +1846,68 @@
       <c r="M10" s="12"/>
     </row>
     <row r="11" spans="1:13" s="1" customFormat="1">
-      <c r="A11" s="38"/>
-      <c r="B11" s="39"/>
-      <c r="C11" s="40">
-        <v>10</v>
-      </c>
-      <c r="D11" s="10">
-        <f>2/3.281</f>
-        <v>0.6095702529716549</v>
-      </c>
-      <c r="E11" s="10">
-        <v>1.61</v>
-      </c>
-      <c r="F11" s="10">
-        <f t="shared" si="0"/>
-        <v>9.8140810728436438</v>
-      </c>
-      <c r="G11" s="36">
-        <f t="shared" si="1"/>
-        <v>9.8140810728436438</v>
-      </c>
-      <c r="H11" s="27"/>
-      <c r="I11" s="27"/>
-      <c r="J11" s="27"/>
-      <c r="K11" s="11"/>
-      <c r="M11" s="12"/>
+      <c r="A11" s="21"/>
+      <c r="B11" s="36" t="s">
+        <v>25</v>
+      </c>
+      <c r="C11" s="22"/>
+      <c r="D11" s="23"/>
+      <c r="E11" s="24"/>
+      <c r="F11" s="24"/>
+      <c r="G11" s="27">
+        <f>SUM(G10:G10)</f>
+        <v>35.720816824138979</v>
+      </c>
+      <c r="H11" s="25" t="s">
+        <v>26</v>
+      </c>
+      <c r="I11" s="26">
+        <f>Sheet1!H10/10</f>
+        <v>249.75</v>
+      </c>
+      <c r="J11" s="27">
+        <f>G11*I11</f>
+        <v>8921.2740018287095</v>
+      </c>
+      <c r="K11" s="24"/>
     </row>
     <row r="12" spans="1:13" s="1" customFormat="1">
-      <c r="A12" s="38"/>
-      <c r="B12" s="39"/>
-      <c r="C12" s="40">
-        <v>5</v>
-      </c>
-      <c r="D12" s="10">
-        <f>2/3.281</f>
-        <v>0.6095702529716549</v>
-      </c>
-      <c r="E12" s="10">
-        <v>1.61</v>
-      </c>
-      <c r="F12" s="10">
-        <f t="shared" si="0"/>
-        <v>4.9070405364218219</v>
-      </c>
-      <c r="G12" s="36">
-        <f t="shared" si="1"/>
-        <v>4.9070405364218219</v>
-      </c>
-      <c r="H12" s="27"/>
-      <c r="I12" s="27"/>
-      <c r="J12" s="27"/>
-      <c r="K12" s="11"/>
-      <c r="M12" s="12"/>
+      <c r="A12" s="21"/>
+      <c r="B12" s="36" t="s">
+        <v>28</v>
+      </c>
+      <c r="C12" s="22"/>
+      <c r="D12" s="23"/>
+      <c r="E12" s="24"/>
+      <c r="F12" s="24"/>
+      <c r="G12" s="27"/>
+      <c r="H12" s="25"/>
+      <c r="I12" s="26"/>
+      <c r="J12" s="27">
+        <f>0*0.13*G11*5298.54/10</f>
+        <v>0</v>
+      </c>
+      <c r="K12" s="24"/>
     </row>
     <row r="13" spans="1:13" s="1" customFormat="1">
       <c r="A13" s="21"/>
-      <c r="B13" s="39" t="s">
-        <v>25</v>
-      </c>
+      <c r="B13" s="36"/>
       <c r="C13" s="22"/>
       <c r="D13" s="23"/>
       <c r="E13" s="24"/>
       <c r="F13" s="24"/>
-      <c r="G13" s="27">
-        <f>SUM(G10:G12)</f>
-        <v>49.070405364218225</v>
-      </c>
-      <c r="H13" s="25" t="s">
-        <v>30</v>
-      </c>
-      <c r="I13" s="26">
-        <v>181.17</v>
-      </c>
-      <c r="J13" s="27">
-        <f>G13*I13</f>
-        <v>8890.0853398354157</v>
-      </c>
+      <c r="G13" s="27"/>
+      <c r="H13" s="25"/>
+      <c r="I13" s="26"/>
+      <c r="J13" s="27"/>
       <c r="K13" s="24"/>
     </row>
-    <row r="14" spans="1:13" s="1" customFormat="1">
-      <c r="A14" s="21"/>
-      <c r="B14" s="39" t="s">
-        <v>33</v>
+    <row r="14" spans="1:13" s="1" customFormat="1" ht="30">
+      <c r="A14" s="21">
+        <v>2</v>
+      </c>
+      <c r="B14" s="34" t="s">
+        <v>29</v>
       </c>
       <c r="C14" s="22"/>
       <c r="D14" s="23"/>
@@ -1980,214 +1916,230 @@
       <c r="G14" s="27"/>
       <c r="H14" s="25"/>
       <c r="I14" s="26"/>
-      <c r="J14" s="27">
-        <f>0.13*G13*(1871.42/18.94)</f>
-        <v>630.31013415373206</v>
-      </c>
+      <c r="J14" s="27"/>
       <c r="K14" s="24"/>
     </row>
-    <row r="15" spans="1:13" s="1" customFormat="1" ht="15">
+    <row r="15" spans="1:13" s="1" customFormat="1">
       <c r="A15" s="21"/>
-      <c r="B15" s="37"/>
-      <c r="C15" s="22"/>
-      <c r="D15" s="23"/>
-      <c r="E15" s="24"/>
-      <c r="F15" s="24"/>
-      <c r="G15" s="28"/>
+      <c r="B15" s="36" t="s">
+        <v>59</v>
+      </c>
+      <c r="C15" s="22">
+        <v>1</v>
+      </c>
+      <c r="D15" s="23">
+        <f>D19+D20</f>
+        <v>11.682413898201766</v>
+      </c>
+      <c r="E15" s="24">
+        <v>1.5</v>
+      </c>
+      <c r="F15" s="24">
+        <v>0.05</v>
+      </c>
+      <c r="G15" s="33">
+        <f>PRODUCT(C15:F15)</f>
+        <v>0.8761810423651325</v>
+      </c>
       <c r="H15" s="25"/>
       <c r="I15" s="26"/>
       <c r="J15" s="27"/>
       <c r="K15" s="24"/>
     </row>
-    <row r="16" spans="1:13" s="1" customFormat="1" ht="30">
-      <c r="A16" s="38">
-        <v>2</v>
-      </c>
-      <c r="B16" s="74" t="s">
-        <v>67</v>
-      </c>
-      <c r="C16" s="40"/>
-      <c r="D16" s="10"/>
-      <c r="E16" s="10"/>
-      <c r="F16" s="10"/>
-      <c r="G16" s="36"/>
-      <c r="H16" s="27"/>
-      <c r="I16" s="27"/>
-      <c r="J16" s="27"/>
-      <c r="K16" s="11"/>
-      <c r="M16" s="12"/>
-    </row>
-    <row r="17" spans="1:13" s="1" customFormat="1">
-      <c r="A17" s="38"/>
-      <c r="B17" s="39"/>
-      <c r="C17" s="40">
-        <v>2</v>
-      </c>
-      <c r="D17" s="10">
-        <f>D22</f>
-        <v>12.32</v>
-      </c>
-      <c r="E17" s="10">
-        <f>12/3.281</f>
-        <v>3.6574215178299299</v>
-      </c>
-      <c r="F17" s="10"/>
-      <c r="G17" s="36">
-        <f>PRODUCT(C17:F17)</f>
-        <v>90.118866199329474</v>
-      </c>
-      <c r="H17" s="27"/>
-      <c r="I17" s="27"/>
+    <row r="16" spans="1:13" s="1" customFormat="1">
+      <c r="A16" s="21"/>
+      <c r="B16" s="36" t="s">
+        <v>25</v>
+      </c>
+      <c r="C16" s="22"/>
+      <c r="D16" s="23"/>
+      <c r="E16" s="24"/>
+      <c r="F16" s="24"/>
+      <c r="G16" s="27">
+        <f>SUM(G15:G15)</f>
+        <v>0.8761810423651325</v>
+      </c>
+      <c r="H16" s="25" t="s">
+        <v>30</v>
+      </c>
+      <c r="I16" s="26">
+        <v>663.31</v>
+      </c>
+      <c r="J16" s="27">
+        <f>G16*I16</f>
+        <v>581.17964721121598</v>
+      </c>
+      <c r="K16" s="24"/>
+    </row>
+    <row r="17" spans="1:31" s="1" customFormat="1">
+      <c r="A17" s="21"/>
+      <c r="B17" s="36"/>
+      <c r="C17" s="22"/>
+      <c r="D17" s="23"/>
+      <c r="E17" s="24"/>
+      <c r="F17" s="24"/>
+      <c r="G17" s="27"/>
+      <c r="H17" s="25"/>
+      <c r="I17" s="26"/>
       <c r="J17" s="27"/>
-      <c r="K17" s="11"/>
-      <c r="M17" s="12"/>
-    </row>
-    <row r="18" spans="1:13" s="1" customFormat="1">
-      <c r="A18" s="21"/>
-      <c r="B18" s="39" t="s">
-        <v>25</v>
+      <c r="K17" s="24"/>
+    </row>
+    <row r="18" spans="1:31" s="1" customFormat="1" ht="45">
+      <c r="A18" s="21">
+        <v>3</v>
+      </c>
+      <c r="B18" s="34" t="s">
+        <v>62</v>
       </c>
       <c r="C18" s="22"/>
       <c r="D18" s="23"/>
       <c r="E18" s="24"/>
       <c r="F18" s="24"/>
-      <c r="G18" s="27">
-        <f>SUM(G17:G17)</f>
-        <v>90.118866199329474</v>
-      </c>
-      <c r="H18" s="25" t="s">
-        <v>31</v>
-      </c>
-      <c r="I18" s="26">
-        <f>Sheet1!H10/10</f>
-        <v>249.75</v>
-      </c>
-      <c r="J18" s="27">
-        <f>G18*I18</f>
-        <v>22507.186833282536</v>
-      </c>
+      <c r="G18" s="27"/>
+      <c r="H18" s="25"/>
+      <c r="I18" s="26"/>
+      <c r="J18" s="27"/>
       <c r="K18" s="24"/>
     </row>
-    <row r="19" spans="1:13" s="1" customFormat="1">
+    <row r="19" spans="1:31" s="1" customFormat="1">
       <c r="A19" s="21"/>
-      <c r="B19" s="39" t="s">
-        <v>33</v>
-      </c>
-      <c r="C19" s="22"/>
-      <c r="D19" s="23"/>
-      <c r="E19" s="24"/>
+      <c r="B19" s="36" t="str">
+        <f>B15</f>
+        <v>-for passage flooring</v>
+      </c>
+      <c r="C19" s="22">
+        <v>1</v>
+      </c>
+      <c r="D19" s="23">
+        <f>23/3.281</f>
+        <v>7.0100579091740318</v>
+      </c>
+      <c r="E19" s="24">
+        <f>1.5</f>
+        <v>1.5</v>
+      </c>
       <c r="F19" s="24"/>
-      <c r="G19" s="27"/>
+      <c r="G19" s="33">
+        <f>PRODUCT(C19:F19)</f>
+        <v>10.515086863761049</v>
+      </c>
       <c r="H19" s="25"/>
       <c r="I19" s="26"/>
-      <c r="J19" s="27">
-        <f>0.13*G18*5298.54/10</f>
-        <v>6207.4794250533378</v>
-      </c>
+      <c r="J19" s="27"/>
       <c r="K19" s="24"/>
     </row>
-    <row r="20" spans="1:13" s="1" customFormat="1">
+    <row r="20" spans="1:31" s="1" customFormat="1">
       <c r="A20" s="21"/>
-      <c r="B20" s="39"/>
-      <c r="C20" s="22"/>
-      <c r="D20" s="23"/>
-      <c r="E20" s="24"/>
+      <c r="B20" s="36"/>
+      <c r="C20" s="22">
+        <v>1</v>
+      </c>
+      <c r="D20" s="23">
+        <f>15.33/3.281</f>
+        <v>4.6723559890277349</v>
+      </c>
+      <c r="E20" s="24">
+        <f>10/3.281</f>
+        <v>3.047851264858275</v>
+      </c>
       <c r="F20" s="24"/>
-      <c r="G20" s="27"/>
+      <c r="G20" s="33">
+        <f>PRODUCT(C20:F20)</f>
+        <v>14.240646111026319</v>
+      </c>
       <c r="H20" s="25"/>
       <c r="I20" s="26"/>
       <c r="J20" s="27"/>
       <c r="K20" s="24"/>
     </row>
-    <row r="21" spans="1:13" s="1" customFormat="1" ht="30">
-      <c r="A21" s="21">
-        <v>3</v>
-      </c>
-      <c r="B21" s="37" t="s">
-        <v>34</v>
+    <row r="21" spans="1:31" s="1" customFormat="1">
+      <c r="A21" s="21"/>
+      <c r="B21" s="36" t="s">
+        <v>25</v>
       </c>
       <c r="C21" s="22"/>
       <c r="D21" s="23"/>
       <c r="E21" s="24"/>
       <c r="F21" s="24"/>
-      <c r="G21" s="27"/>
-      <c r="H21" s="25"/>
-      <c r="I21" s="26"/>
-      <c r="J21" s="27"/>
+      <c r="G21" s="27">
+        <f>SUM(G19:G20)</f>
+        <v>24.755732974787367</v>
+      </c>
+      <c r="H21" s="25" t="s">
+        <v>26</v>
+      </c>
+      <c r="I21" s="26">
+        <v>1737.28</v>
+      </c>
+      <c r="J21" s="27">
+        <f>G21*I21</f>
+        <v>43007.6397824386</v>
+      </c>
       <c r="K21" s="24"/>
     </row>
-    <row r="22" spans="1:13" s="1" customFormat="1">
+    <row r="22" spans="1:31" s="1" customFormat="1">
       <c r="A22" s="21"/>
-      <c r="B22" s="39" t="s">
-        <v>68</v>
-      </c>
-      <c r="C22" s="22">
-        <v>1</v>
-      </c>
-      <c r="D22" s="23">
-        <f>5.63+6.09+0.3+0.3</f>
-        <v>12.32</v>
-      </c>
-      <c r="E22" s="24">
-        <v>1.5</v>
-      </c>
-      <c r="F22" s="24">
-        <v>0.05</v>
-      </c>
-      <c r="G22" s="36">
-        <f>PRODUCT(C22:F22)</f>
-        <v>0.92400000000000004</v>
-      </c>
+      <c r="B22" s="36" t="s">
+        <v>28</v>
+      </c>
+      <c r="C22" s="22"/>
+      <c r="D22" s="23"/>
+      <c r="E22" s="24"/>
+      <c r="F22" s="24"/>
+      <c r="G22" s="27"/>
       <c r="H22" s="25"/>
       <c r="I22" s="26"/>
-      <c r="J22" s="27"/>
+      <c r="J22" s="27">
+        <f>0.13*G21*8078.11</f>
+        <v>25997.339433124744</v>
+      </c>
       <c r="K22" s="24"/>
     </row>
-    <row r="23" spans="1:13" s="1" customFormat="1">
+    <row r="23" spans="1:31" s="1" customFormat="1">
       <c r="A23" s="21"/>
-      <c r="B23" s="39" t="s">
-        <v>25</v>
-      </c>
+      <c r="B23" s="36"/>
       <c r="C23" s="22"/>
       <c r="D23" s="23"/>
       <c r="E23" s="24"/>
       <c r="F23" s="24"/>
-      <c r="G23" s="27">
-        <f>SUM(G22:G22)</f>
-        <v>0.92400000000000004</v>
-      </c>
-      <c r="H23" s="25" t="s">
-        <v>36</v>
-      </c>
-      <c r="I23" s="26">
-        <v>663.31</v>
-      </c>
-      <c r="J23" s="27">
-        <f>G23*I23</f>
-        <v>612.89843999999994</v>
-      </c>
+      <c r="G23" s="27"/>
+      <c r="H23" s="25"/>
+      <c r="I23" s="26"/>
+      <c r="J23" s="27"/>
       <c r="K23" s="24"/>
     </row>
-    <row r="24" spans="1:13" s="1" customFormat="1">
-      <c r="A24" s="21"/>
-      <c r="B24" s="39"/>
-      <c r="C24" s="22"/>
+    <row r="24" spans="1:31" s="1" customFormat="1">
+      <c r="A24" s="21">
+        <v>4</v>
+      </c>
+      <c r="B24" s="38" t="s">
+        <v>27</v>
+      </c>
+      <c r="C24" s="22">
+        <v>1</v>
+      </c>
       <c r="D24" s="23"/>
       <c r="E24" s="24"/>
       <c r="F24" s="24"/>
-      <c r="G24" s="27"/>
-      <c r="H24" s="25"/>
-      <c r="I24" s="26"/>
-      <c r="J24" s="27"/>
+      <c r="G24" s="33">
+        <f>PRODUCT(C24:F24)</f>
+        <v>1</v>
+      </c>
+      <c r="H24" s="25" t="s">
+        <v>31</v>
+      </c>
+      <c r="I24" s="26">
+        <v>500</v>
+      </c>
+      <c r="J24" s="27">
+        <f>G24*I24</f>
+        <v>500</v>
+      </c>
       <c r="K24" s="24"/>
     </row>
-    <row r="25" spans="1:13" s="1" customFormat="1" ht="15">
-      <c r="A25" s="21">
-        <v>4</v>
-      </c>
-      <c r="B25" s="37" t="s">
-        <v>38</v>
-      </c>
+    <row r="25" spans="1:31" s="1" customFormat="1">
+      <c r="A25" s="21"/>
+      <c r="B25" s="36"/>
       <c r="C25" s="22"/>
       <c r="D25" s="23"/>
       <c r="E25" s="24"/>
@@ -2198,481 +2150,253 @@
       <c r="J25" s="27"/>
       <c r="K25" s="24"/>
     </row>
-    <row r="26" spans="1:13" s="1" customFormat="1">
-      <c r="A26" s="21"/>
-      <c r="B26" s="39" t="str">
-        <f>B22</f>
-        <v>-for passage flooring</v>
-      </c>
-      <c r="C26" s="22">
-        <f>C22</f>
-        <v>1</v>
-      </c>
-      <c r="D26" s="23">
-        <f>D22</f>
-        <v>12.32</v>
-      </c>
-      <c r="E26" s="24">
-        <f>E22</f>
-        <v>1.5</v>
-      </c>
-      <c r="F26" s="24"/>
-      <c r="G26" s="36">
-        <f>PRODUCT(C26:F26)</f>
-        <v>18.48</v>
-      </c>
-      <c r="H26" s="25"/>
-      <c r="I26" s="26"/>
-      <c r="J26" s="27"/>
-      <c r="K26" s="24"/>
-    </row>
-    <row r="27" spans="1:13" s="1" customFormat="1">
-      <c r="A27" s="21"/>
-      <c r="B27" s="39" t="s">
-        <v>25</v>
-      </c>
-      <c r="C27" s="22"/>
-      <c r="D27" s="23"/>
-      <c r="E27" s="24"/>
-      <c r="F27" s="24"/>
-      <c r="G27" s="27">
-        <f>SUM(G26:G26)</f>
-        <v>18.48</v>
-      </c>
-      <c r="H27" s="25" t="s">
-        <v>31</v>
-      </c>
-      <c r="I27" s="26">
-        <v>1014.97</v>
-      </c>
-      <c r="J27" s="27">
-        <f>G27*I27</f>
-        <v>18756.6456</v>
-      </c>
-      <c r="K27" s="24"/>
-    </row>
-    <row r="28" spans="1:13" s="1" customFormat="1">
-      <c r="A28" s="21"/>
-      <c r="B28" s="39" t="s">
-        <v>33</v>
-      </c>
-      <c r="C28" s="22"/>
-      <c r="D28" s="23"/>
-      <c r="E28" s="24"/>
-      <c r="F28" s="24"/>
-      <c r="G28" s="27"/>
-      <c r="H28" s="25"/>
-      <c r="I28" s="26"/>
-      <c r="J28" s="27">
-        <f>0.13*G27*8617.2/10</f>
-        <v>2070.1961280000005</v>
-      </c>
-      <c r="K28" s="24"/>
-    </row>
-    <row r="29" spans="1:13" s="1" customFormat="1">
-      <c r="A29" s="21"/>
-      <c r="B29" s="39"/>
-      <c r="C29" s="22"/>
-      <c r="D29" s="23"/>
-      <c r="E29" s="24"/>
-      <c r="F29" s="24"/>
-      <c r="G29" s="27"/>
-      <c r="H29" s="25"/>
-      <c r="I29" s="26"/>
-      <c r="J29" s="27"/>
-      <c r="K29" s="24"/>
-    </row>
-    <row r="30" spans="1:13" s="1" customFormat="1" ht="30">
-      <c r="A30" s="21">
-        <v>5</v>
-      </c>
-      <c r="B30" s="37" t="s">
-        <v>37</v>
-      </c>
-      <c r="C30" s="22"/>
-      <c r="D30" s="23"/>
-      <c r="E30" s="24"/>
-      <c r="F30" s="24"/>
-      <c r="G30" s="27"/>
-      <c r="H30" s="25"/>
-      <c r="I30" s="26"/>
-      <c r="J30" s="27"/>
-      <c r="K30" s="24"/>
-    </row>
-    <row r="31" spans="1:13" s="1" customFormat="1">
-      <c r="A31" s="21"/>
-      <c r="B31" s="39" t="s">
-        <v>35</v>
-      </c>
-      <c r="C31" s="22">
-        <f>C26</f>
-        <v>1</v>
-      </c>
-      <c r="D31" s="23">
-        <f>D26</f>
-        <v>12.32</v>
-      </c>
-      <c r="E31" s="24">
-        <f>E26</f>
-        <v>1.5</v>
-      </c>
-      <c r="F31" s="24">
-        <v>7.4999999999999997E-2</v>
-      </c>
-      <c r="G31" s="36">
-        <f>PRODUCT(C31:F31)</f>
-        <v>1.3859999999999999</v>
-      </c>
-      <c r="H31" s="25"/>
-      <c r="I31" s="26"/>
-      <c r="J31" s="27"/>
-      <c r="K31" s="24"/>
-    </row>
-    <row r="32" spans="1:13" s="1" customFormat="1">
-      <c r="A32" s="21"/>
-      <c r="B32" s="39" t="s">
-        <v>25</v>
-      </c>
-      <c r="C32" s="22"/>
-      <c r="D32" s="23"/>
-      <c r="E32" s="24"/>
-      <c r="F32" s="24"/>
-      <c r="G32" s="27">
-        <f>SUM(G31:G31)</f>
-        <v>1.3859999999999999</v>
-      </c>
-      <c r="H32" s="25" t="s">
-        <v>36</v>
-      </c>
-      <c r="I32" s="26">
-        <v>12983.1</v>
-      </c>
-      <c r="J32" s="27">
-        <f>G32*I32</f>
-        <v>17994.5766</v>
-      </c>
-      <c r="K32" s="24"/>
-    </row>
-    <row r="33" spans="1:31" s="1" customFormat="1">
-      <c r="A33" s="21"/>
-      <c r="B33" s="39" t="s">
-        <v>33</v>
-      </c>
-      <c r="C33" s="22"/>
-      <c r="D33" s="23"/>
-      <c r="E33" s="24"/>
-      <c r="F33" s="24"/>
-      <c r="G33" s="27"/>
-      <c r="H33" s="25"/>
-      <c r="I33" s="26"/>
-      <c r="J33" s="27">
-        <f>0.13*G32*8078.11</f>
-        <v>1455.5138598000001</v>
-      </c>
-      <c r="K33" s="24"/>
-    </row>
-    <row r="34" spans="1:31" s="1" customFormat="1">
-      <c r="A34" s="21"/>
-      <c r="B34" s="39"/>
-      <c r="C34" s="22"/>
-      <c r="D34" s="23"/>
-      <c r="E34" s="24"/>
-      <c r="F34" s="24"/>
-      <c r="G34" s="27"/>
-      <c r="H34" s="25"/>
-      <c r="I34" s="26"/>
-      <c r="J34" s="27"/>
-      <c r="K34" s="24"/>
-    </row>
-    <row r="35" spans="1:31" s="1" customFormat="1">
-      <c r="A35" s="21">
-        <v>6</v>
-      </c>
-      <c r="B35" s="41" t="s">
-        <v>32</v>
-      </c>
-      <c r="C35" s="22">
-        <v>1</v>
-      </c>
-      <c r="D35" s="23"/>
-      <c r="E35" s="24"/>
-      <c r="F35" s="24"/>
-      <c r="G35" s="36">
-        <f>PRODUCT(C35:F35)</f>
-        <v>1</v>
-      </c>
-      <c r="H35" s="25" t="s">
-        <v>39</v>
-      </c>
-      <c r="I35" s="26">
-        <v>500</v>
-      </c>
-      <c r="J35" s="27">
-        <f>G35*I35</f>
-        <v>500</v>
-      </c>
-      <c r="K35" s="24"/>
-    </row>
-    <row r="36" spans="1:31" s="1" customFormat="1">
-      <c r="A36" s="21"/>
-      <c r="B36" s="39"/>
-      <c r="C36" s="22"/>
-      <c r="D36" s="23"/>
-      <c r="E36" s="24"/>
-      <c r="F36" s="24"/>
-      <c r="G36" s="27"/>
-      <c r="H36" s="25"/>
-      <c r="I36" s="26"/>
-      <c r="J36" s="27"/>
-      <c r="K36" s="24"/>
-    </row>
-    <row r="37" spans="1:31">
-      <c r="A37" s="9"/>
-      <c r="B37" s="20" t="s">
+    <row r="26" spans="1:31">
+      <c r="A26" s="9"/>
+      <c r="B26" s="20" t="s">
         <v>16</v>
       </c>
-      <c r="C37" s="8"/>
-      <c r="D37" s="6"/>
-      <c r="E37" s="6"/>
-      <c r="F37" s="6"/>
-      <c r="G37" s="33"/>
-      <c r="H37" s="7"/>
-      <c r="I37" s="7"/>
-      <c r="J37" s="7">
-        <f>SUM(J10:J36)</f>
-        <v>79624.892360125028</v>
-      </c>
-      <c r="K37" s="4"/>
-      <c r="M37" s="29"/>
-      <c r="P37" s="32"/>
-      <c r="Q37" s="32"/>
-    </row>
-    <row r="38" spans="1:31">
-      <c r="M38" s="29"/>
-      <c r="N38" s="30"/>
-      <c r="O38" s="30"/>
-      <c r="P38" s="31"/>
-      <c r="R38" s="30"/>
-      <c r="S38" s="30"/>
-      <c r="T38" s="30"/>
-      <c r="U38" s="29"/>
-      <c r="V38" s="29"/>
-      <c r="W38" s="29"/>
-      <c r="X38" s="29"/>
-      <c r="Y38" s="29"/>
-      <c r="Z38" s="29"/>
-      <c r="AA38" s="29"/>
-      <c r="AB38" s="29"/>
-      <c r="AC38" s="29"/>
-      <c r="AD38" s="29"/>
-      <c r="AE38" s="29"/>
-    </row>
-    <row r="39" spans="1:31" s="1" customFormat="1">
-      <c r="B39" s="11" t="s">
+      <c r="C26" s="8"/>
+      <c r="D26" s="6"/>
+      <c r="E26" s="6"/>
+      <c r="F26" s="6"/>
+      <c r="G26" s="32"/>
+      <c r="H26" s="7"/>
+      <c r="I26" s="7"/>
+      <c r="J26" s="7">
+        <f>SUM(J11:J24)</f>
+        <v>79007.432864603266</v>
+      </c>
+      <c r="K26" s="4"/>
+      <c r="M26" s="28"/>
+      <c r="P26" s="31"/>
+      <c r="Q26" s="31"/>
+    </row>
+    <row r="27" spans="1:31">
+      <c r="M27" s="28"/>
+      <c r="N27" s="29"/>
+      <c r="O27" s="29"/>
+      <c r="P27" s="30"/>
+      <c r="R27" s="29"/>
+      <c r="S27" s="29"/>
+      <c r="T27" s="29"/>
+      <c r="U27" s="28"/>
+      <c r="V27" s="28"/>
+      <c r="W27" s="28"/>
+      <c r="X27" s="28"/>
+      <c r="Y27" s="28"/>
+      <c r="Z27" s="28"/>
+      <c r="AA27" s="28"/>
+      <c r="AB27" s="28"/>
+      <c r="AC27" s="28"/>
+      <c r="AD27" s="28"/>
+      <c r="AE27" s="28"/>
+    </row>
+    <row r="28" spans="1:31" s="1" customFormat="1">
+      <c r="B28" s="11" t="s">
         <v>22</v>
       </c>
-      <c r="C39" s="81">
-        <f>J37</f>
-        <v>79624.892360125028</v>
-      </c>
-      <c r="D39" s="82"/>
-      <c r="E39" s="10">
+      <c r="C28" s="78">
+        <f>J26</f>
+        <v>79007.432864603266</v>
+      </c>
+      <c r="D28" s="79"/>
+      <c r="E28" s="10">
         <v>100</v>
       </c>
-      <c r="F39" s="12"/>
-      <c r="G39" s="13"/>
-      <c r="H39" s="12"/>
-      <c r="I39" s="14"/>
-      <c r="J39" s="15"/>
-      <c r="K39" s="16"/>
-      <c r="M39" s="12"/>
-      <c r="N39" s="30"/>
-      <c r="O39" s="30"/>
-      <c r="P39" s="30"/>
-      <c r="Q39" s="30"/>
-      <c r="R39" s="30"/>
-      <c r="S39" s="30"/>
-      <c r="T39" s="30"/>
-      <c r="U39" s="12"/>
-      <c r="V39" s="12"/>
-      <c r="W39" s="12"/>
-      <c r="X39" s="12"/>
-      <c r="Y39" s="12"/>
-      <c r="Z39" s="12"/>
-      <c r="AA39" s="12"/>
-      <c r="AB39" s="12"/>
-      <c r="AC39" s="12"/>
-      <c r="AD39" s="12"/>
-      <c r="AE39" s="12"/>
-    </row>
-    <row r="40" spans="1:31">
-      <c r="B40" s="11" t="s">
+      <c r="F28" s="12"/>
+      <c r="G28" s="13"/>
+      <c r="H28" s="12"/>
+      <c r="I28" s="14"/>
+      <c r="J28" s="15"/>
+      <c r="K28" s="16"/>
+      <c r="M28" s="12"/>
+      <c r="N28" s="29"/>
+      <c r="O28" s="29"/>
+      <c r="P28" s="29"/>
+      <c r="Q28" s="29"/>
+      <c r="R28" s="29"/>
+      <c r="S28" s="29"/>
+      <c r="T28" s="29"/>
+      <c r="U28" s="12"/>
+      <c r="V28" s="12"/>
+      <c r="W28" s="12"/>
+      <c r="X28" s="12"/>
+      <c r="Y28" s="12"/>
+      <c r="Z28" s="12"/>
+      <c r="AA28" s="12"/>
+      <c r="AB28" s="12"/>
+      <c r="AC28" s="12"/>
+      <c r="AD28" s="12"/>
+      <c r="AE28" s="12"/>
+    </row>
+    <row r="29" spans="1:31">
+      <c r="B29" s="11" t="s">
         <v>17</v>
       </c>
-      <c r="C40" s="84">
+      <c r="C29" s="81">
         <v>70000</v>
       </c>
-      <c r="D40" s="85"/>
-      <c r="E40" s="10"/>
-      <c r="M40" s="29"/>
-      <c r="N40" s="30"/>
-      <c r="O40" s="30"/>
-      <c r="P40" s="30"/>
-      <c r="Q40" s="30"/>
-      <c r="R40" s="30"/>
-      <c r="S40" s="30"/>
-      <c r="T40" s="30"/>
-      <c r="U40" s="29"/>
-      <c r="V40" s="29"/>
-      <c r="W40" s="29"/>
-      <c r="X40" s="29"/>
-      <c r="Y40" s="29"/>
-      <c r="Z40" s="29"/>
-      <c r="AA40" s="29"/>
-      <c r="AB40" s="29"/>
-      <c r="AC40" s="29"/>
-      <c r="AD40" s="29"/>
-      <c r="AE40" s="29"/>
-    </row>
-    <row r="41" spans="1:31">
-      <c r="B41" s="11" t="s">
+      <c r="D29" s="82"/>
+      <c r="E29" s="10"/>
+      <c r="M29" s="28"/>
+      <c r="N29" s="29"/>
+      <c r="O29" s="29"/>
+      <c r="P29" s="29"/>
+      <c r="Q29" s="29"/>
+      <c r="R29" s="29"/>
+      <c r="S29" s="29"/>
+      <c r="T29" s="29"/>
+      <c r="U29" s="28"/>
+      <c r="V29" s="28"/>
+      <c r="W29" s="28"/>
+      <c r="X29" s="28"/>
+      <c r="Y29" s="28"/>
+      <c r="Z29" s="28"/>
+      <c r="AA29" s="28"/>
+      <c r="AB29" s="28"/>
+      <c r="AC29" s="28"/>
+      <c r="AD29" s="28"/>
+      <c r="AE29" s="28"/>
+    </row>
+    <row r="30" spans="1:31">
+      <c r="B30" s="11" t="s">
         <v>18</v>
       </c>
-      <c r="C41" s="84">
+      <c r="C30" s="81">
         <v>35000</v>
       </c>
-      <c r="D41" s="85"/>
-      <c r="E41" s="10">
-        <f>C41/C39*100</f>
-        <v>43.956103377450198</v>
-      </c>
-      <c r="M41" s="29"/>
-      <c r="N41" s="29"/>
-      <c r="O41" s="29"/>
-      <c r="P41" s="29"/>
-      <c r="Q41" s="29"/>
-      <c r="R41" s="29"/>
-      <c r="S41" s="29"/>
-      <c r="T41" s="29"/>
-      <c r="U41" s="29"/>
-      <c r="V41" s="29"/>
-      <c r="W41" s="29"/>
-      <c r="X41" s="29"/>
-      <c r="Y41" s="29"/>
-      <c r="Z41" s="29"/>
-      <c r="AA41" s="29"/>
-      <c r="AB41" s="29"/>
-      <c r="AC41" s="29"/>
-      <c r="AD41" s="29"/>
-      <c r="AE41" s="29"/>
-    </row>
-    <row r="42" spans="1:31">
-      <c r="B42" s="11" t="s">
+      <c r="D30" s="82"/>
+      <c r="E30" s="10">
+        <f>C30/C28*100</f>
+        <v>44.299629453826519</v>
+      </c>
+      <c r="M30" s="28"/>
+      <c r="N30" s="28"/>
+      <c r="O30" s="28"/>
+      <c r="P30" s="28"/>
+      <c r="Q30" s="28"/>
+      <c r="R30" s="28"/>
+      <c r="S30" s="28"/>
+      <c r="T30" s="28"/>
+      <c r="U30" s="28"/>
+      <c r="V30" s="28"/>
+      <c r="W30" s="28"/>
+      <c r="X30" s="28"/>
+      <c r="Y30" s="28"/>
+      <c r="Z30" s="28"/>
+      <c r="AA30" s="28"/>
+      <c r="AB30" s="28"/>
+      <c r="AC30" s="28"/>
+      <c r="AD30" s="28"/>
+      <c r="AE30" s="28"/>
+    </row>
+    <row r="31" spans="1:31">
+      <c r="B31" s="11" t="s">
         <v>19</v>
       </c>
-      <c r="C42" s="86">
-        <f>C39-C41</f>
-        <v>44624.892360125028</v>
-      </c>
-      <c r="D42" s="86"/>
-      <c r="E42" s="10">
-        <f>100-E41</f>
-        <v>56.043896622549802</v>
-      </c>
-      <c r="M42" s="29"/>
-      <c r="N42" s="29"/>
-      <c r="O42" s="29"/>
-      <c r="P42" s="29"/>
-      <c r="Q42" s="29"/>
-      <c r="R42" s="29"/>
-      <c r="S42" s="29"/>
-      <c r="T42" s="29"/>
-      <c r="U42" s="29"/>
-      <c r="V42" s="29"/>
-      <c r="W42" s="29"/>
-      <c r="X42" s="29"/>
-      <c r="Y42" s="29"/>
-      <c r="Z42" s="29"/>
-      <c r="AA42" s="29"/>
-      <c r="AB42" s="29"/>
-      <c r="AC42" s="29"/>
-      <c r="AD42" s="29"/>
-      <c r="AE42" s="29"/>
-    </row>
-    <row r="43" spans="1:31">
-      <c r="B43" s="11" t="s">
+      <c r="C31" s="83">
+        <f>C28-C30</f>
+        <v>44007.432864603266</v>
+      </c>
+      <c r="D31" s="83"/>
+      <c r="E31" s="10">
+        <f>100-E30</f>
+        <v>55.700370546173481</v>
+      </c>
+      <c r="M31" s="28"/>
+      <c r="N31" s="28"/>
+      <c r="O31" s="28"/>
+      <c r="P31" s="28"/>
+      <c r="Q31" s="28"/>
+      <c r="R31" s="28"/>
+      <c r="S31" s="28"/>
+      <c r="T31" s="28"/>
+      <c r="U31" s="28"/>
+      <c r="V31" s="28"/>
+      <c r="W31" s="28"/>
+      <c r="X31" s="28"/>
+      <c r="Y31" s="28"/>
+      <c r="Z31" s="28"/>
+      <c r="AA31" s="28"/>
+      <c r="AB31" s="28"/>
+      <c r="AC31" s="28"/>
+      <c r="AD31" s="28"/>
+      <c r="AE31" s="28"/>
+    </row>
+    <row r="32" spans="1:31">
+      <c r="B32" s="11" t="s">
         <v>20</v>
       </c>
-      <c r="C43" s="81">
-        <f>C40*0.03</f>
+      <c r="C32" s="78">
+        <f>C29*0.03</f>
         <v>2100</v>
       </c>
-      <c r="D43" s="82"/>
-      <c r="E43" s="10">
+      <c r="D32" s="79"/>
+      <c r="E32" s="10">
         <v>3</v>
       </c>
-      <c r="M43" s="29"/>
-      <c r="N43" s="29"/>
-      <c r="O43" s="29"/>
-      <c r="P43" s="29"/>
-      <c r="Q43" s="29"/>
-      <c r="R43" s="29"/>
-      <c r="S43" s="29"/>
-      <c r="T43" s="29"/>
-      <c r="U43" s="29"/>
-      <c r="V43" s="29"/>
-      <c r="W43" s="29"/>
-      <c r="X43" s="29"/>
-      <c r="Y43" s="29"/>
-      <c r="Z43" s="29"/>
-      <c r="AA43" s="29"/>
-      <c r="AB43" s="29"/>
-      <c r="AC43" s="29"/>
-      <c r="AD43" s="29"/>
-      <c r="AE43" s="29"/>
-    </row>
-    <row r="44" spans="1:31">
-      <c r="B44" s="11" t="s">
+      <c r="M32" s="28"/>
+      <c r="N32" s="28"/>
+      <c r="O32" s="28"/>
+      <c r="P32" s="28"/>
+      <c r="Q32" s="28"/>
+      <c r="R32" s="28"/>
+      <c r="S32" s="28"/>
+      <c r="T32" s="28"/>
+      <c r="U32" s="28"/>
+      <c r="V32" s="28"/>
+      <c r="W32" s="28"/>
+      <c r="X32" s="28"/>
+      <c r="Y32" s="28"/>
+      <c r="Z32" s="28"/>
+      <c r="AA32" s="28"/>
+      <c r="AB32" s="28"/>
+      <c r="AC32" s="28"/>
+      <c r="AD32" s="28"/>
+      <c r="AE32" s="28"/>
+    </row>
+    <row r="33" spans="2:31">
+      <c r="B33" s="11" t="s">
         <v>21</v>
       </c>
-      <c r="C44" s="81">
-        <f>C40*0.02</f>
+      <c r="C33" s="78">
+        <f>C29*0.02</f>
         <v>1400</v>
       </c>
-      <c r="D44" s="82"/>
-      <c r="E44" s="10">
+      <c r="D33" s="79"/>
+      <c r="E33" s="10">
         <v>2</v>
       </c>
-      <c r="M44" s="29"/>
-      <c r="N44" s="29"/>
-      <c r="O44" s="29"/>
-      <c r="P44" s="29"/>
-      <c r="Q44" s="29"/>
-      <c r="R44" s="29"/>
-      <c r="S44" s="29"/>
-      <c r="T44" s="29"/>
-      <c r="U44" s="29"/>
-      <c r="V44" s="29"/>
-      <c r="W44" s="29"/>
-      <c r="X44" s="29"/>
-      <c r="Y44" s="29"/>
-      <c r="Z44" s="29"/>
-      <c r="AA44" s="29"/>
-      <c r="AB44" s="29"/>
-      <c r="AC44" s="29"/>
-      <c r="AD44" s="29"/>
-      <c r="AE44" s="29"/>
+      <c r="M33" s="28"/>
+      <c r="N33" s="28"/>
+      <c r="O33" s="28"/>
+      <c r="P33" s="28"/>
+      <c r="Q33" s="28"/>
+      <c r="R33" s="28"/>
+      <c r="S33" s="28"/>
+      <c r="T33" s="28"/>
+      <c r="U33" s="28"/>
+      <c r="V33" s="28"/>
+      <c r="W33" s="28"/>
+      <c r="X33" s="28"/>
+      <c r="Y33" s="28"/>
+      <c r="Z33" s="28"/>
+      <c r="AA33" s="28"/>
+      <c r="AB33" s="28"/>
+      <c r="AC33" s="28"/>
+      <c r="AD33" s="28"/>
+      <c r="AE33" s="28"/>
     </row>
   </sheetData>
   <mergeCells count="15">
-    <mergeCell ref="C43:D43"/>
-    <mergeCell ref="C44:D44"/>
+    <mergeCell ref="C32:D32"/>
+    <mergeCell ref="C33:D33"/>
     <mergeCell ref="A7:F7"/>
     <mergeCell ref="H7:K7"/>
-    <mergeCell ref="C39:D39"/>
-    <mergeCell ref="C40:D40"/>
-    <mergeCell ref="C41:D41"/>
-    <mergeCell ref="C42:D42"/>
+    <mergeCell ref="C28:D28"/>
+    <mergeCell ref="C29:D29"/>
+    <mergeCell ref="C30:D30"/>
+    <mergeCell ref="C31:D31"/>
     <mergeCell ref="A6:G6"/>
     <mergeCell ref="H6:K6"/>
     <mergeCell ref="A1:K1"/>
@@ -2698,261 +2422,261 @@
       <selection activeCell="F7" sqref="F7"/>
     </sheetView>
   </sheetViews>
-  <sheetFormatPr defaultColWidth="9.109375" defaultRowHeight="14.4"/>
+  <sheetFormatPr defaultColWidth="9.140625" defaultRowHeight="15"/>
   <cols>
-    <col min="1" max="1" width="7.33203125" customWidth="1"/>
+    <col min="1" max="1" width="7.28515625" customWidth="1"/>
     <col min="2" max="2" width="13" customWidth="1"/>
-    <col min="3" max="3" width="20.33203125" customWidth="1"/>
-    <col min="4" max="4" width="10.5546875" customWidth="1"/>
+    <col min="3" max="3" width="20.28515625" customWidth="1"/>
+    <col min="4" max="4" width="10.5703125" customWidth="1"/>
     <col min="5" max="5" width="12" customWidth="1"/>
-    <col min="6" max="6" width="14.33203125" customWidth="1"/>
-    <col min="7" max="7" width="16.33203125" customWidth="1"/>
+    <col min="6" max="6" width="14.28515625" customWidth="1"/>
+    <col min="7" max="7" width="16.28515625" customWidth="1"/>
     <col min="8" max="8" width="15" customWidth="1"/>
     <col min="9" max="9" width="0" hidden="1" customWidth="1"/>
-    <col min="12" max="12" width="16.6640625" customWidth="1"/>
+    <col min="12" max="12" width="16.7109375" customWidth="1"/>
   </cols>
   <sheetData>
-    <row r="1" spans="1:8" s="43" customFormat="1" ht="20.100000000000001" customHeight="1">
-      <c r="A1" s="42" t="e">
+    <row r="1" spans="1:8" s="40" customFormat="1" ht="20.100000000000001" customHeight="1">
+      <c r="A1" s="39" t="e">
         <f>#REF!+1</f>
         <v>#REF!</v>
       </c>
-      <c r="B1" s="87" t="s">
-        <v>72</v>
-      </c>
-      <c r="C1" s="88"/>
-      <c r="D1" s="88"/>
-      <c r="E1" s="88"/>
-      <c r="F1" s="88"/>
-      <c r="G1" s="88"/>
-      <c r="H1" s="88"/>
-    </row>
-    <row r="2" spans="1:8" s="43" customFormat="1" ht="20.100000000000001" customHeight="1">
-      <c r="A2" s="44" t="s">
+      <c r="B1" s="84" t="s">
+        <v>63</v>
+      </c>
+      <c r="C1" s="85"/>
+      <c r="D1" s="85"/>
+      <c r="E1" s="85"/>
+      <c r="F1" s="85"/>
+      <c r="G1" s="85"/>
+      <c r="H1" s="85"/>
+    </row>
+    <row r="2" spans="1:8" s="40" customFormat="1" ht="20.100000000000001" customHeight="1">
+      <c r="A2" s="41" t="s">
+        <v>32</v>
+      </c>
+      <c r="B2" s="86" t="s">
+        <v>33</v>
+      </c>
+      <c r="C2" s="87"/>
+      <c r="D2" s="87"/>
+      <c r="E2" s="87"/>
+      <c r="F2" s="87"/>
+      <c r="G2" s="87"/>
+      <c r="H2" s="87"/>
+    </row>
+    <row r="3" spans="1:8" s="40" customFormat="1" ht="33" customHeight="1">
+      <c r="B3" s="42" t="s">
+        <v>34</v>
+      </c>
+      <c r="C3" s="42" t="s">
+        <v>35</v>
+      </c>
+      <c r="D3" s="42" t="s">
+        <v>36</v>
+      </c>
+      <c r="E3" s="42" t="s">
+        <v>37</v>
+      </c>
+      <c r="F3" s="42" t="s">
+        <v>38</v>
+      </c>
+      <c r="G3" s="42" t="s">
+        <v>39</v>
+      </c>
+      <c r="H3" s="42" t="s">
         <v>40</v>
       </c>
-      <c r="B2" s="89" t="s">
+    </row>
+    <row r="4" spans="1:8" s="40" customFormat="1" ht="20.100000000000001" customHeight="1">
+      <c r="B4" s="88" t="s">
         <v>41</v>
       </c>
-      <c r="C2" s="90"/>
-      <c r="D2" s="90"/>
-      <c r="E2" s="90"/>
-      <c r="F2" s="90"/>
-      <c r="G2" s="90"/>
-      <c r="H2" s="90"/>
-    </row>
-    <row r="3" spans="1:8" s="43" customFormat="1" ht="33" customHeight="1">
-      <c r="B3" s="45" t="s">
+      <c r="C4" s="43" t="s">
         <v>42</v>
       </c>
-      <c r="C3" s="45" t="s">
+      <c r="D4" s="44">
+        <v>1.1000000000000001</v>
+      </c>
+      <c r="E4" s="45" t="s">
         <v>43</v>
       </c>
-      <c r="D3" s="45" t="s">
-        <v>44</v>
-      </c>
-      <c r="E3" s="45" t="s">
-        <v>45</v>
-      </c>
-      <c r="F3" s="45" t="s">
-        <v>46</v>
-      </c>
-      <c r="G3" s="45" t="s">
-        <v>47</v>
-      </c>
-      <c r="H3" s="45" t="s">
-        <v>48</v>
-      </c>
-    </row>
-    <row r="4" spans="1:8" s="43" customFormat="1" ht="20.100000000000001" customHeight="1">
-      <c r="B4" s="91" t="s">
-        <v>49</v>
-      </c>
-      <c r="C4" s="46" t="s">
-        <v>50</v>
-      </c>
-      <c r="D4" s="47">
-        <v>1.1000000000000001</v>
-      </c>
-      <c r="E4" s="48" t="s">
-        <v>51</v>
-      </c>
-      <c r="F4" s="49">
+      <c r="F4" s="46">
         <v>1225</v>
       </c>
-      <c r="G4" s="49">
+      <c r="G4" s="46">
         <f t="shared" ref="G4:G9" si="0">FLOOR(D4*F4,0.01)</f>
         <v>1347.5</v>
       </c>
-      <c r="H4" s="50"/>
-    </row>
-    <row r="5" spans="1:8" s="43" customFormat="1" ht="20.100000000000001" customHeight="1">
-      <c r="B5" s="92"/>
-      <c r="C5" s="51" t="s">
-        <v>52</v>
-      </c>
-      <c r="D5" s="52">
+      <c r="H4" s="47"/>
+    </row>
+    <row r="5" spans="1:8" s="40" customFormat="1" ht="20.100000000000001" customHeight="1">
+      <c r="B5" s="89"/>
+      <c r="C5" s="48" t="s">
+        <v>44</v>
+      </c>
+      <c r="D5" s="49">
         <v>1.25</v>
       </c>
-      <c r="E5" s="51" t="s">
-        <v>51</v>
-      </c>
-      <c r="F5" s="53">
+      <c r="E5" s="48" t="s">
+        <v>43</v>
+      </c>
+      <c r="F5" s="50">
         <v>920</v>
       </c>
-      <c r="G5" s="53">
+      <c r="G5" s="50">
         <f t="shared" si="0"/>
         <v>1150</v>
       </c>
-      <c r="H5" s="54">
+      <c r="H5" s="51">
         <f>SUM(G4+G5)</f>
         <v>2497.5</v>
       </c>
     </row>
-    <row r="6" spans="1:8" s="43" customFormat="1" ht="16.2">
-      <c r="B6" s="93" t="s">
-        <v>53</v>
-      </c>
-      <c r="C6" s="55" t="s">
-        <v>66</v>
-      </c>
-      <c r="D6" s="56">
+    <row r="6" spans="1:8" s="40" customFormat="1" ht="16.5">
+      <c r="B6" s="90" t="s">
+        <v>45</v>
+      </c>
+      <c r="C6" s="52" t="s">
+        <v>64</v>
+      </c>
+      <c r="D6" s="53">
         <v>12</v>
       </c>
-      <c r="E6" s="57" t="s">
-        <v>54</v>
-      </c>
-      <c r="F6" s="58">
-        <f>313.4529148</f>
-        <v>313.45291479999997</v>
-      </c>
-      <c r="G6" s="58">
+      <c r="E6" s="54" t="s">
+        <v>46</v>
+      </c>
+      <c r="F6" s="55">
+        <f>330.1569507</f>
+        <v>330.15695069999998</v>
+      </c>
+      <c r="G6" s="55">
         <f t="shared" si="0"/>
-        <v>3761.4300000000003</v>
-      </c>
-      <c r="H6" s="59"/>
-    </row>
-    <row r="7" spans="1:8" s="43" customFormat="1" ht="16.2">
-      <c r="B7" s="94"/>
-      <c r="C7" s="57" t="s">
-        <v>55</v>
-      </c>
-      <c r="D7" s="56">
+        <v>3961.88</v>
+      </c>
+      <c r="H6" s="56"/>
+    </row>
+    <row r="7" spans="1:8" s="40" customFormat="1" ht="16.5">
+      <c r="B7" s="91"/>
+      <c r="C7" s="54" t="s">
+        <v>47</v>
+      </c>
+      <c r="D7" s="53">
         <v>30</v>
       </c>
-      <c r="E7" s="57" t="s">
-        <v>56</v>
-      </c>
-      <c r="F7" s="58">
+      <c r="E7" s="54" t="s">
+        <v>48</v>
+      </c>
+      <c r="F7" s="55">
         <v>34.130000000000003</v>
       </c>
-      <c r="G7" s="58">
+      <c r="G7" s="55">
         <f t="shared" si="0"/>
         <v>1023.9</v>
       </c>
-      <c r="H7" s="60"/>
-    </row>
-    <row r="8" spans="1:8" s="43" customFormat="1" ht="20.100000000000001" customHeight="1">
-      <c r="B8" s="94"/>
-      <c r="C8" s="57" t="s">
-        <v>57</v>
-      </c>
-      <c r="D8" s="56">
+      <c r="H7" s="57"/>
+    </row>
+    <row r="8" spans="1:8" s="40" customFormat="1" ht="20.100000000000001" customHeight="1">
+      <c r="B8" s="91"/>
+      <c r="C8" s="54" t="s">
+        <v>49</v>
+      </c>
+      <c r="D8" s="53">
         <v>25</v>
       </c>
-      <c r="E8" s="57" t="s">
-        <v>56</v>
-      </c>
-      <c r="F8" s="58">
+      <c r="E8" s="54" t="s">
+        <v>48</v>
+      </c>
+      <c r="F8" s="55">
         <f>'[1]update Rate'!$N$131</f>
         <v>13.928571428571429</v>
       </c>
-      <c r="G8" s="58">
+      <c r="G8" s="55">
         <f t="shared" si="0"/>
         <v>348.21</v>
       </c>
-      <c r="H8" s="60"/>
-    </row>
-    <row r="9" spans="1:8" s="61" customFormat="1" ht="20.100000000000001" customHeight="1">
-      <c r="B9" s="95"/>
-      <c r="C9" s="62" t="s">
-        <v>58</v>
-      </c>
-      <c r="D9" s="63">
+      <c r="H8" s="57"/>
+    </row>
+    <row r="9" spans="1:8" s="58" customFormat="1" ht="20.100000000000001" customHeight="1">
+      <c r="B9" s="92"/>
+      <c r="C9" s="59" t="s">
+        <v>50</v>
+      </c>
+      <c r="D9" s="60">
         <v>55</v>
       </c>
-      <c r="E9" s="62" t="s">
-        <v>56</v>
-      </c>
-      <c r="F9" s="64">
+      <c r="E9" s="59" t="s">
+        <v>48</v>
+      </c>
+      <c r="F9" s="61">
         <f>'[1]update Rate'!$N$132</f>
         <v>3</v>
       </c>
-      <c r="G9" s="64">
+      <c r="G9" s="61">
         <f t="shared" si="0"/>
         <v>165</v>
       </c>
-      <c r="H9" s="65">
+      <c r="H9" s="62">
         <f>0*SUM(G6+G7+G8+G9)</f>
         <v>0</v>
       </c>
     </row>
-    <row r="10" spans="1:8" s="43" customFormat="1" ht="20.100000000000001" customHeight="1">
-      <c r="F10" s="43" t="s">
-        <v>59</v>
-      </c>
-      <c r="G10" s="66"/>
-      <c r="H10" s="53">
+    <row r="10" spans="1:8" s="40" customFormat="1" ht="20.100000000000001" customHeight="1">
+      <c r="F10" s="40" t="s">
+        <v>51</v>
+      </c>
+      <c r="G10" s="63"/>
+      <c r="H10" s="50">
         <f>SUM(H5:H9)</f>
         <v>2497.5</v>
       </c>
     </row>
-    <row r="11" spans="1:8" s="43" customFormat="1" ht="20.100000000000001" customHeight="1">
-      <c r="B11" s="67" t="s">
-        <v>60</v>
-      </c>
-      <c r="F11" s="43" t="s">
-        <v>61</v>
-      </c>
-      <c r="G11" s="66"/>
-      <c r="H11" s="68">
+    <row r="11" spans="1:8" s="40" customFormat="1" ht="20.100000000000001" customHeight="1">
+      <c r="B11" s="64" t="s">
+        <v>52</v>
+      </c>
+      <c r="F11" s="40" t="s">
+        <v>53</v>
+      </c>
+      <c r="G11" s="63"/>
+      <c r="H11" s="65">
         <f>FLOOR(H10*0.15,0.01)</f>
         <v>374.62</v>
       </c>
     </row>
-    <row r="12" spans="1:8" s="43" customFormat="1" ht="20.100000000000001" customHeight="1">
-      <c r="A12" s="69"/>
-      <c r="B12" s="70">
+    <row r="12" spans="1:8" s="40" customFormat="1" ht="20.100000000000001" customHeight="1">
+      <c r="A12" s="66"/>
+      <c r="B12" s="67">
         <f>+H12</f>
         <v>2872.12</v>
       </c>
-      <c r="C12" s="69" t="s">
-        <v>62</v>
-      </c>
-      <c r="D12" s="71">
+      <c r="C12" s="66" t="s">
+        <v>54</v>
+      </c>
+      <c r="D12" s="68">
         <f>INT(B12/B13*100)/100</f>
         <v>287.20999999999998</v>
       </c>
-      <c r="E12" s="43" t="s">
-        <v>63</v>
-      </c>
-      <c r="F12" s="43" t="s">
-        <v>64</v>
-      </c>
-      <c r="G12" s="66"/>
-      <c r="H12" s="71">
+      <c r="E12" s="40" t="s">
+        <v>55</v>
+      </c>
+      <c r="F12" s="40" t="s">
+        <v>56</v>
+      </c>
+      <c r="G12" s="63"/>
+      <c r="H12" s="68">
         <f>SUM(H10:H11)</f>
         <v>2872.12</v>
       </c>
     </row>
-    <row r="13" spans="1:8" s="43" customFormat="1" ht="20.100000000000001" customHeight="1">
-      <c r="B13" s="72">
+    <row r="13" spans="1:8" s="40" customFormat="1" ht="20.100000000000001" customHeight="1">
+      <c r="B13" s="69">
         <v>10</v>
       </c>
     </row>
-    <row r="14" spans="1:8" s="43" customFormat="1" ht="15">
-      <c r="A14" s="73" t="s">
-        <v>65</v>
+    <row r="14" spans="1:8" s="40" customFormat="1">
+      <c r="A14" s="70" t="s">
+        <v>57</v>
       </c>
     </row>
   </sheetData>

--- a/ofc/पशु शाखा इस्तिमेट/subash.xlsx
+++ b/ofc/पशु शाखा इस्तिमेट/subash.xlsx
@@ -43,7 +43,7 @@
     <definedName name="description_784">[3]Abstract!$B$300</definedName>
     <definedName name="excavator">[2]Equipment_Rate!$J$19</definedName>
     <definedName name="generator">[2]Equipment_Rate!$J$20</definedName>
-    <definedName name="_xlnm.Print_Area" localSheetId="0">'as per mistry'!$A$1:$K$33</definedName>
+    <definedName name="_xlnm.Print_Area" localSheetId="0">'as per mistry'!$A$1:$K$34</definedName>
     <definedName name="_xlnm.Print_Titles" localSheetId="0">'as per mistry'!$1:$8</definedName>
     <definedName name="skilled">[2]District_Rate!$D$148</definedName>
     <definedName name="skilled_blacksmith">[2]District_Rate!$D$149</definedName>
@@ -59,7 +59,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="72" uniqueCount="65">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="73" uniqueCount="65">
   <si>
     <t>Government of Nepal</t>
   </si>
@@ -267,16 +267,7 @@
     </r>
   </si>
   <si>
-    <t xml:space="preserve">)=@$ dL=dL= afSnf] ;L=hL=cfO{= 5fgf 5fpg] sfd </t>
-  </si>
-  <si>
     <t>-for passage flooring</t>
-  </si>
-  <si>
-    <t>Project:- फ्रेंश कृषि तथा पशुपालन</t>
-  </si>
-  <si>
-    <t xml:space="preserve">Date: 2082/02/05  </t>
   </si>
   <si>
     <t>%) dL=dL= df]6f] x]eL 8o"6L OG6/nls+u s+lqm6Ans la5ofpg]] sfd</t>
@@ -310,6 +301,15 @@
       </rPr>
       <t>(0.26mm)</t>
     </r>
+  </si>
+  <si>
+    <t xml:space="preserve">)=@^ dL=dL= afSnf] ;L=hL=cfO{= 5fgf 5fpg] sfd </t>
+  </si>
+  <si>
+    <t xml:space="preserve">Date:                     </t>
+  </si>
+  <si>
+    <t>Project:- फ्रेंस कृषि तथा पशुपालन</t>
   </si>
 </sst>
 </file>
@@ -481,7 +481,7 @@
       </patternFill>
     </fill>
   </fills>
-  <borders count="10">
+  <borders count="11">
     <border>
       <left/>
       <right/>
@@ -596,6 +596,17 @@
       <bottom/>
       <diagonal/>
     </border>
+    <border>
+      <left/>
+      <right style="thin">
+        <color indexed="64"/>
+      </right>
+      <top/>
+      <bottom style="thin">
+        <color indexed="64"/>
+      </bottom>
+      <diagonal/>
+    </border>
   </borders>
   <cellStyleXfs count="8">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0"/>
@@ -607,7 +618,7 @@
     <xf numFmtId="0" fontId="11" fillId="0" borderId="0"/>
     <xf numFmtId="0" fontId="11" fillId="0" borderId="0"/>
   </cellStyleXfs>
-  <cellXfs count="93">
+  <cellXfs count="97">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0"/>
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyAlignment="1">
       <alignment vertical="center"/>
@@ -788,10 +799,26 @@
     <xf numFmtId="0" fontId="13" fillId="2" borderId="1" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment wrapText="1"/>
     </xf>
-    <xf numFmtId="0" fontId="12" fillId="0" borderId="0" xfId="0" applyFont="1" applyAlignment="1"/>
+    <xf numFmtId="2" fontId="0" fillId="0" borderId="2" xfId="0" applyNumberFormat="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="2" fontId="0" fillId="0" borderId="3" xfId="0" applyNumberFormat="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="6" fillId="0" borderId="0" xfId="0" applyFont="1"/>
     <xf numFmtId="0" fontId="6" fillId="0" borderId="0" xfId="0" applyFont="1" applyAlignment="1">
       <alignment horizontal="right"/>
     </xf>
+    <xf numFmtId="2" fontId="0" fillId="0" borderId="2" xfId="1" applyNumberFormat="1" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="2" fontId="0" fillId="0" borderId="3" xfId="1" applyNumberFormat="1" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="2" fontId="0" fillId="0" borderId="1" xfId="0" applyNumberFormat="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="12" fillId="0" borderId="0" xfId="0" applyFont="1" applyAlignment="1"/>
     <xf numFmtId="0" fontId="3" fillId="0" borderId="0" xfId="0" applyFont="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center"/>
     </xf>
@@ -804,22 +831,6 @@
     <xf numFmtId="0" fontId="5" fillId="0" borderId="0" xfId="0" applyFont="1" applyAlignment="1">
       <alignment horizontal="center"/>
     </xf>
-    <xf numFmtId="2" fontId="0" fillId="0" borderId="2" xfId="0" applyNumberFormat="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="2" fontId="0" fillId="0" borderId="3" xfId="0" applyNumberFormat="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="6" fillId="0" borderId="0" xfId="0" applyFont="1"/>
-    <xf numFmtId="2" fontId="0" fillId="0" borderId="2" xfId="1" applyNumberFormat="1" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="2" fontId="0" fillId="0" borderId="3" xfId="1" applyNumberFormat="1" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="2" fontId="0" fillId="0" borderId="1" xfId="0" applyNumberFormat="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
     <xf numFmtId="0" fontId="16" fillId="0" borderId="4" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center"/>
     </xf>
@@ -846,6 +857,18 @@
     </xf>
     <xf numFmtId="0" fontId="0" fillId="0" borderId="5" xfId="0" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="5" xfId="0" applyBorder="1" applyAlignment="1">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="2" fontId="0" fillId="0" borderId="6" xfId="0" applyNumberFormat="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="2" fontId="0" fillId="0" borderId="10" xfId="0" applyNumberFormat="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="2" fontId="0" fillId="0" borderId="5" xfId="0" applyNumberFormat="1" applyBorder="1" applyAlignment="1">
+      <alignment vertical="center"/>
     </xf>
   </cellXfs>
   <cellStyles count="8">
@@ -1633,10 +1656,10 @@
 
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
-  <dimension ref="A1:AE33"/>
+  <dimension ref="A1:AE34"/>
   <sheetViews>
-    <sheetView tabSelected="1" topLeftCell="A13" zoomScaleNormal="100" zoomScaleSheetLayoutView="80" workbookViewId="0">
-      <selection activeCell="J13" sqref="J13"/>
+    <sheetView tabSelected="1" zoomScaleNormal="100" zoomScaleSheetLayoutView="80" workbookViewId="0">
+      <selection activeCell="J26" sqref="J26"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="15"/>
@@ -1659,113 +1682,113 @@
   </cols>
   <sheetData>
     <row r="1" spans="1:13" s="1" customFormat="1">
-      <c r="A1" s="74" t="s">
+      <c r="A1" s="80" t="s">
         <v>0</v>
       </c>
-      <c r="B1" s="74"/>
-      <c r="C1" s="74"/>
-      <c r="D1" s="74"/>
-      <c r="E1" s="74"/>
-      <c r="F1" s="74"/>
-      <c r="G1" s="74"/>
-      <c r="H1" s="74"/>
-      <c r="I1" s="74"/>
-      <c r="J1" s="74"/>
-      <c r="K1" s="74"/>
+      <c r="B1" s="80"/>
+      <c r="C1" s="80"/>
+      <c r="D1" s="80"/>
+      <c r="E1" s="80"/>
+      <c r="F1" s="80"/>
+      <c r="G1" s="80"/>
+      <c r="H1" s="80"/>
+      <c r="I1" s="80"/>
+      <c r="J1" s="80"/>
+      <c r="K1" s="80"/>
     </row>
     <row r="2" spans="1:13" s="1" customFormat="1" ht="22.5">
-      <c r="A2" s="75" t="s">
+      <c r="A2" s="81" t="s">
         <v>1</v>
       </c>
-      <c r="B2" s="75"/>
-      <c r="C2" s="75"/>
-      <c r="D2" s="75"/>
-      <c r="E2" s="75"/>
-      <c r="F2" s="75"/>
-      <c r="G2" s="75"/>
-      <c r="H2" s="75"/>
-      <c r="I2" s="75"/>
-      <c r="J2" s="75"/>
-      <c r="K2" s="75"/>
+      <c r="B2" s="81"/>
+      <c r="C2" s="81"/>
+      <c r="D2" s="81"/>
+      <c r="E2" s="81"/>
+      <c r="F2" s="81"/>
+      <c r="G2" s="81"/>
+      <c r="H2" s="81"/>
+      <c r="I2" s="81"/>
+      <c r="J2" s="81"/>
+      <c r="K2" s="81"/>
     </row>
     <row r="3" spans="1:13" s="1" customFormat="1">
-      <c r="A3" s="76" t="s">
+      <c r="A3" s="82" t="s">
         <v>2</v>
       </c>
-      <c r="B3" s="76"/>
-      <c r="C3" s="76"/>
-      <c r="D3" s="76"/>
-      <c r="E3" s="76"/>
-      <c r="F3" s="76"/>
-      <c r="G3" s="76"/>
-      <c r="H3" s="76"/>
-      <c r="I3" s="76"/>
-      <c r="J3" s="76"/>
-      <c r="K3" s="76"/>
+      <c r="B3" s="82"/>
+      <c r="C3" s="82"/>
+      <c r="D3" s="82"/>
+      <c r="E3" s="82"/>
+      <c r="F3" s="82"/>
+      <c r="G3" s="82"/>
+      <c r="H3" s="82"/>
+      <c r="I3" s="82"/>
+      <c r="J3" s="82"/>
+      <c r="K3" s="82"/>
     </row>
     <row r="4" spans="1:13" s="1" customFormat="1">
-      <c r="A4" s="76" t="s">
+      <c r="A4" s="82" t="s">
         <v>3</v>
       </c>
-      <c r="B4" s="76"/>
-      <c r="C4" s="76"/>
-      <c r="D4" s="76"/>
-      <c r="E4" s="76"/>
-      <c r="F4" s="76"/>
-      <c r="G4" s="76"/>
-      <c r="H4" s="76"/>
-      <c r="I4" s="76"/>
-      <c r="J4" s="76"/>
-      <c r="K4" s="76"/>
+      <c r="B4" s="82"/>
+      <c r="C4" s="82"/>
+      <c r="D4" s="82"/>
+      <c r="E4" s="82"/>
+      <c r="F4" s="82"/>
+      <c r="G4" s="82"/>
+      <c r="H4" s="82"/>
+      <c r="I4" s="82"/>
+      <c r="J4" s="82"/>
+      <c r="K4" s="82"/>
     </row>
     <row r="5" spans="1:13" ht="18.75">
-      <c r="A5" s="77" t="s">
+      <c r="A5" s="83" t="s">
         <v>4</v>
       </c>
-      <c r="B5" s="77"/>
-      <c r="C5" s="77"/>
-      <c r="D5" s="77"/>
-      <c r="E5" s="77"/>
-      <c r="F5" s="77"/>
-      <c r="G5" s="77"/>
-      <c r="H5" s="77"/>
-      <c r="I5" s="77"/>
-      <c r="J5" s="77"/>
-      <c r="K5" s="77"/>
+      <c r="B5" s="83"/>
+      <c r="C5" s="83"/>
+      <c r="D5" s="83"/>
+      <c r="E5" s="83"/>
+      <c r="F5" s="83"/>
+      <c r="G5" s="83"/>
+      <c r="H5" s="83"/>
+      <c r="I5" s="83"/>
+      <c r="J5" s="83"/>
+      <c r="K5" s="83"/>
     </row>
     <row r="6" spans="1:13" ht="18.75">
-      <c r="A6" s="72" t="s">
-        <v>60</v>
-      </c>
-      <c r="B6" s="72"/>
-      <c r="C6" s="72"/>
-      <c r="D6" s="72"/>
-      <c r="E6" s="72"/>
-      <c r="F6" s="72"/>
-      <c r="G6" s="72"/>
-      <c r="H6" s="73" t="s">
+      <c r="A6" s="79" t="s">
+        <v>64</v>
+      </c>
+      <c r="B6" s="79"/>
+      <c r="C6" s="79"/>
+      <c r="D6" s="79"/>
+      <c r="E6" s="79"/>
+      <c r="F6" s="79"/>
+      <c r="G6" s="79"/>
+      <c r="H6" s="75" t="s">
         <v>24</v>
       </c>
-      <c r="I6" s="73"/>
-      <c r="J6" s="73"/>
-      <c r="K6" s="73"/>
+      <c r="I6" s="75"/>
+      <c r="J6" s="75"/>
+      <c r="K6" s="75"/>
     </row>
     <row r="7" spans="1:13" ht="15.75">
-      <c r="A7" s="80" t="s">
+      <c r="A7" s="74" t="s">
         <v>23</v>
       </c>
-      <c r="B7" s="80"/>
-      <c r="C7" s="80"/>
-      <c r="D7" s="80"/>
-      <c r="E7" s="80"/>
-      <c r="F7" s="80"/>
+      <c r="B7" s="74"/>
+      <c r="C7" s="74"/>
+      <c r="D7" s="74"/>
+      <c r="E7" s="74"/>
+      <c r="F7" s="74"/>
       <c r="G7" s="2"/>
-      <c r="H7" s="73" t="s">
-        <v>61</v>
-      </c>
-      <c r="I7" s="73"/>
-      <c r="J7" s="73"/>
-      <c r="K7" s="73"/>
+      <c r="H7" s="75" t="s">
+        <v>63</v>
+      </c>
+      <c r="I7" s="75"/>
+      <c r="J7" s="75"/>
+      <c r="K7" s="75"/>
     </row>
     <row r="8" spans="1:13" ht="15" customHeight="1">
       <c r="A8" s="3" t="s">
@@ -1807,7 +1830,7 @@
         <v>1</v>
       </c>
       <c r="B9" s="71" t="s">
-        <v>58</v>
+        <v>62</v>
       </c>
       <c r="C9" s="37"/>
       <c r="D9" s="10"/>
@@ -1922,14 +1945,14 @@
     <row r="15" spans="1:13" s="1" customFormat="1">
       <c r="A15" s="21"/>
       <c r="B15" s="36" t="s">
-        <v>59</v>
+        <v>58</v>
       </c>
       <c r="C15" s="22">
         <v>1</v>
       </c>
       <c r="D15" s="23">
         <f>D19+D20</f>
-        <v>11.682413898201766</v>
+        <v>10.667479427003961</v>
       </c>
       <c r="E15" s="24">
         <v>1.5</v>
@@ -1939,7 +1962,7 @@
       </c>
       <c r="G15" s="33">
         <f>PRODUCT(C15:F15)</f>
-        <v>0.8761810423651325</v>
+        <v>0.80006095702529711</v>
       </c>
       <c r="H15" s="25"/>
       <c r="I15" s="26"/>
@@ -1957,7 +1980,7 @@
       <c r="F16" s="24"/>
       <c r="G16" s="27">
         <f>SUM(G15:G15)</f>
-        <v>0.8761810423651325</v>
+        <v>0.80006095702529711</v>
       </c>
       <c r="H16" s="25" t="s">
         <v>30</v>
@@ -1967,7 +1990,7 @@
       </c>
       <c r="J16" s="27">
         <f>G16*I16</f>
-        <v>581.17964721121598</v>
+        <v>530.68843340444982</v>
       </c>
       <c r="K16" s="24"/>
     </row>
@@ -1989,7 +2012,7 @@
         <v>3</v>
       </c>
       <c r="B18" s="34" t="s">
-        <v>62</v>
+        <v>59</v>
       </c>
       <c r="C18" s="22"/>
       <c r="D18" s="23"/>
@@ -2035,8 +2058,8 @@
         <v>1</v>
       </c>
       <c r="D20" s="23">
-        <f>15.33/3.281</f>
-        <v>4.6723559890277349</v>
+        <f>12/3.281</f>
+        <v>3.6574215178299299</v>
       </c>
       <c r="E20" s="24">
         <f>10/3.281</f>
@@ -2045,7 +2068,7 @@
       <c r="F20" s="24"/>
       <c r="G20" s="33">
         <f>PRODUCT(C20:F20)</f>
-        <v>14.240646111026319</v>
+        <v>11.147276799237824</v>
       </c>
       <c r="H20" s="25"/>
       <c r="I20" s="26"/>
@@ -2063,7 +2086,7 @@
       <c r="F21" s="24"/>
       <c r="G21" s="27">
         <f>SUM(G19:G20)</f>
-        <v>24.755732974787367</v>
+        <v>21.662363662998871</v>
       </c>
       <c r="H21" s="25" t="s">
         <v>26</v>
@@ -2073,7 +2096,7 @@
       </c>
       <c r="J21" s="27">
         <f>G21*I21</f>
-        <v>43007.6397824386</v>
+        <v>37633.59114445468</v>
       </c>
       <c r="K21" s="24"/>
     </row>
@@ -2091,7 +2114,7 @@
       <c r="I22" s="26"/>
       <c r="J22" s="27">
         <f>0.13*G21*8078.11</f>
-        <v>25997.339433124744</v>
+        <v>22748.824348862014</v>
       </c>
       <c r="K22" s="24"/>
     </row>
@@ -2164,7 +2187,7 @@
       <c r="I26" s="7"/>
       <c r="J26" s="7">
         <f>SUM(J11:J24)</f>
-        <v>79007.432864603266</v>
+        <v>70334.37792854986</v>
       </c>
       <c r="K26" s="4"/>
       <c r="M26" s="28"/>
@@ -2197,12 +2220,10 @@
       </c>
       <c r="C28" s="78">
         <f>J26</f>
-        <v>79007.432864603266</v>
-      </c>
-      <c r="D28" s="79"/>
-      <c r="E28" s="10">
-        <v>100</v>
-      </c>
+        <v>70334.37792854986</v>
+      </c>
+      <c r="D28" s="78"/>
+      <c r="E28" s="13"/>
       <c r="F28" s="12"/>
       <c r="G28" s="13"/>
       <c r="H28" s="12"/>
@@ -2229,16 +2250,25 @@
       <c r="AD28" s="12"/>
       <c r="AE28" s="12"/>
     </row>
-    <row r="29" spans="1:31">
-      <c r="B29" s="11" t="s">
-        <v>17</v>
-      </c>
-      <c r="C29" s="81">
-        <v>70000</v>
-      </c>
-      <c r="D29" s="82"/>
-      <c r="E29" s="10"/>
-      <c r="M29" s="28"/>
+    <row r="29" spans="1:31" s="1" customFormat="1" hidden="1">
+      <c r="B29" s="93" t="s">
+        <v>22</v>
+      </c>
+      <c r="C29" s="94">
+        <f>J26</f>
+        <v>70334.37792854986</v>
+      </c>
+      <c r="D29" s="95"/>
+      <c r="E29" s="96">
+        <v>100</v>
+      </c>
+      <c r="F29" s="12"/>
+      <c r="G29" s="13"/>
+      <c r="H29" s="12"/>
+      <c r="I29" s="14"/>
+      <c r="J29" s="15"/>
+      <c r="K29" s="16"/>
+      <c r="M29" s="12"/>
       <c r="N29" s="29"/>
       <c r="O29" s="29"/>
       <c r="P29" s="29"/>
@@ -2246,38 +2276,35 @@
       <c r="R29" s="29"/>
       <c r="S29" s="29"/>
       <c r="T29" s="29"/>
-      <c r="U29" s="28"/>
-      <c r="V29" s="28"/>
-      <c r="W29" s="28"/>
-      <c r="X29" s="28"/>
-      <c r="Y29" s="28"/>
-      <c r="Z29" s="28"/>
-      <c r="AA29" s="28"/>
-      <c r="AB29" s="28"/>
-      <c r="AC29" s="28"/>
-      <c r="AD29" s="28"/>
-      <c r="AE29" s="28"/>
-    </row>
-    <row r="30" spans="1:31">
+      <c r="U29" s="12"/>
+      <c r="V29" s="12"/>
+      <c r="W29" s="12"/>
+      <c r="X29" s="12"/>
+      <c r="Y29" s="12"/>
+      <c r="Z29" s="12"/>
+      <c r="AA29" s="12"/>
+      <c r="AB29" s="12"/>
+      <c r="AC29" s="12"/>
+      <c r="AD29" s="12"/>
+      <c r="AE29" s="12"/>
+    </row>
+    <row r="30" spans="1:31" hidden="1">
       <c r="B30" s="11" t="s">
-        <v>18</v>
-      </c>
-      <c r="C30" s="81">
-        <v>35000</v>
-      </c>
-      <c r="D30" s="82"/>
-      <c r="E30" s="10">
-        <f>C30/C28*100</f>
-        <v>44.299629453826519</v>
-      </c>
+        <v>17</v>
+      </c>
+      <c r="C30" s="76">
+        <v>70000</v>
+      </c>
+      <c r="D30" s="77"/>
+      <c r="E30" s="10"/>
       <c r="M30" s="28"/>
-      <c r="N30" s="28"/>
-      <c r="O30" s="28"/>
-      <c r="P30" s="28"/>
-      <c r="Q30" s="28"/>
-      <c r="R30" s="28"/>
-      <c r="S30" s="28"/>
-      <c r="T30" s="28"/>
+      <c r="N30" s="29"/>
+      <c r="O30" s="29"/>
+      <c r="P30" s="29"/>
+      <c r="Q30" s="29"/>
+      <c r="R30" s="29"/>
+      <c r="S30" s="29"/>
+      <c r="T30" s="29"/>
       <c r="U30" s="28"/>
       <c r="V30" s="28"/>
       <c r="W30" s="28"/>
@@ -2290,18 +2317,17 @@
       <c r="AD30" s="28"/>
       <c r="AE30" s="28"/>
     </row>
-    <row r="31" spans="1:31">
+    <row r="31" spans="1:31" hidden="1">
       <c r="B31" s="11" t="s">
-        <v>19</v>
-      </c>
-      <c r="C31" s="83">
-        <f>C28-C30</f>
-        <v>44007.432864603266</v>
-      </c>
-      <c r="D31" s="83"/>
+        <v>18</v>
+      </c>
+      <c r="C31" s="76">
+        <v>35000</v>
+      </c>
+      <c r="D31" s="77"/>
       <c r="E31" s="10">
-        <f>100-E30</f>
-        <v>55.700370546173481</v>
+        <f>C31/C29*100</f>
+        <v>49.762294102544317</v>
       </c>
       <c r="M31" s="28"/>
       <c r="N31" s="28"/>
@@ -2323,17 +2349,18 @@
       <c r="AD31" s="28"/>
       <c r="AE31" s="28"/>
     </row>
-    <row r="32" spans="1:31">
+    <row r="32" spans="1:31" hidden="1">
       <c r="B32" s="11" t="s">
-        <v>20</v>
+        <v>19</v>
       </c>
       <c r="C32" s="78">
-        <f>C29*0.03</f>
-        <v>2100</v>
-      </c>
-      <c r="D32" s="79"/>
+        <f>C29-C31</f>
+        <v>35334.37792854986</v>
+      </c>
+      <c r="D32" s="78"/>
       <c r="E32" s="10">
-        <v>3</v>
+        <f>100-E31</f>
+        <v>50.237705897455683</v>
       </c>
       <c r="M32" s="28"/>
       <c r="N32" s="28"/>
@@ -2355,17 +2382,17 @@
       <c r="AD32" s="28"/>
       <c r="AE32" s="28"/>
     </row>
-    <row r="33" spans="2:31">
+    <row r="33" spans="2:31" hidden="1">
       <c r="B33" s="11" t="s">
-        <v>21</v>
-      </c>
-      <c r="C33" s="78">
-        <f>C29*0.02</f>
-        <v>1400</v>
-      </c>
-      <c r="D33" s="79"/>
+        <v>20</v>
+      </c>
+      <c r="C33" s="72">
+        <f>C30*0.03</f>
+        <v>2100</v>
+      </c>
+      <c r="D33" s="73"/>
       <c r="E33" s="10">
-        <v>2</v>
+        <v>3</v>
       </c>
       <c r="M33" s="28"/>
       <c r="N33" s="28"/>
@@ -2387,16 +2414,40 @@
       <c r="AD33" s="28"/>
       <c r="AE33" s="28"/>
     </row>
+    <row r="34" spans="2:31" hidden="1">
+      <c r="B34" s="11" t="s">
+        <v>21</v>
+      </c>
+      <c r="C34" s="72">
+        <f>C30*0.02</f>
+        <v>1400</v>
+      </c>
+      <c r="D34" s="73"/>
+      <c r="E34" s="10">
+        <v>2</v>
+      </c>
+      <c r="M34" s="28"/>
+      <c r="N34" s="28"/>
+      <c r="O34" s="28"/>
+      <c r="P34" s="28"/>
+      <c r="Q34" s="28"/>
+      <c r="R34" s="28"/>
+      <c r="S34" s="28"/>
+      <c r="T34" s="28"/>
+      <c r="U34" s="28"/>
+      <c r="V34" s="28"/>
+      <c r="W34" s="28"/>
+      <c r="X34" s="28"/>
+      <c r="Y34" s="28"/>
+      <c r="Z34" s="28"/>
+      <c r="AA34" s="28"/>
+      <c r="AB34" s="28"/>
+      <c r="AC34" s="28"/>
+      <c r="AD34" s="28"/>
+      <c r="AE34" s="28"/>
+    </row>
   </sheetData>
-  <mergeCells count="15">
-    <mergeCell ref="C32:D32"/>
-    <mergeCell ref="C33:D33"/>
-    <mergeCell ref="A7:F7"/>
-    <mergeCell ref="H7:K7"/>
-    <mergeCell ref="C28:D28"/>
-    <mergeCell ref="C29:D29"/>
-    <mergeCell ref="C30:D30"/>
-    <mergeCell ref="C31:D31"/>
+  <mergeCells count="16">
     <mergeCell ref="A6:G6"/>
     <mergeCell ref="H6:K6"/>
     <mergeCell ref="A1:K1"/>
@@ -2404,6 +2455,15 @@
     <mergeCell ref="A3:K3"/>
     <mergeCell ref="A4:K4"/>
     <mergeCell ref="A5:K5"/>
+    <mergeCell ref="C33:D33"/>
+    <mergeCell ref="C34:D34"/>
+    <mergeCell ref="A7:F7"/>
+    <mergeCell ref="H7:K7"/>
+    <mergeCell ref="C29:D29"/>
+    <mergeCell ref="C30:D30"/>
+    <mergeCell ref="C31:D31"/>
+    <mergeCell ref="C32:D32"/>
+    <mergeCell ref="C28:D28"/>
   </mergeCells>
   <printOptions horizontalCentered="1"/>
   <pageMargins left="0.70866141732283472" right="0.70866141732283472" top="0.74803149606299213" bottom="0.74803149606299213" header="0.31496062992125984" footer="0.31496062992125984"/>
@@ -2442,7 +2502,7 @@
         <v>#REF!</v>
       </c>
       <c r="B1" s="84" t="s">
-        <v>63</v>
+        <v>60</v>
       </c>
       <c r="C1" s="85"/>
       <c r="D1" s="85"/>
@@ -2538,7 +2598,7 @@
         <v>45</v>
       </c>
       <c r="C6" s="52" t="s">
-        <v>64</v>
+        <v>61</v>
       </c>
       <c r="D6" s="53">
         <v>12</v>
